--- a/reviewData/review_레이드 그림자의 전설.xlsx
+++ b/reviewData/review_레이드 그림자의 전설.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,56 +500,49 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bd0e6542-cbc4-43dc-825d-e7ff91123385</t>
+          <t>50fe2158-ff96-45b5-a99d-73796b6af805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>최병선</t>
+          <t>수영</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocI-2ihAuM2J9XgCJWpj-edzbZeFyaouSL3_JrLqEvkfcsQc4A=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVB1WrXyopL_9xSH-rQsdPXLQuqwMMb-gIE4NrjCyhrsGpowAA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>이번에 총사클체안나오면 접습니다ㅠㅠ 1년넘게 기다리는데..ㅠㅠ</t>
+          <t>아니 너무 어이없는게 23 레벨에다가 챔도 20명 넘게 있었는데 로그인해보니 레벨이 20이 되있고 챔도 6명밖에 없음 고치거나 보상해주기 바람</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45535.85309027778</v>
+        <v>45535.99221064815</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-기대하신 만큼의 만족감을 드리지 못해 마음이
-무겁습니다.
-게임 운영에 보다 더 신경쓰도록 하며 개선된
-모습으로 보답해 드릴 수 있도록 항상 노력하는
-리니지M이 되겠습니다.
-고맙습니다.</t>
+          <t>안녕하세요! 도움이 필요하면 게임이나 raid.support@plarium.com을 통해 지원팀에 문의하세요. 최선을 다해 도와드리겠습니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45536.64630787037</v>
+        <v>45538.82679398148</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -559,22 +552,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3f589b05-da8b-4ca8-8fe7-0c051ba8314d</t>
+          <t>13030e70-7a12-4c2a-95b2-86a1804e0b10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>박수혁</t>
+          <t>양태광</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocK_4QP4DJM5cJAho_MPiGzOdzl59DEv1t_OzJJvV4UD_r1k8g=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKg5Usb1euPqP7Ssu5uOirAIWnDKW5OIwO3M1xBenilP2ZwPA=mo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>굿</t>
+          <t>화이팅!</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -583,26 +576,28 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
       <c r="I3" s="2" t="n">
-        <v>45535.13179398148</v>
+        <v>45535.5509837963</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-즐거운 마음으로 리뷰를 달아주셨네요.
-고객님의 기대에 충족 할 수 있도록
-노력하는 리니지M이 되도록
-최선을 하겠습니다.
-고맙습니다.
-</t>
+          <t>안녕하세요! 리뷰를 남겨주셔서 감사합니다. 저희 커뮤니티에 가입하여 다른 Raid 플레이어와 게임에 대해 토론해보세요:
+https://discordapp.com/invite/mYKC5J6 (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45535.36902777778</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>45555.91922453704</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -610,56 +605,49 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8e64dcf3-9f99-4d5e-9393-1b3e81625a7b</t>
+          <t>5506b197-af39-4a23-a779-57ff711f35a6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>박상훈</t>
+          <t>고뢔</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIgmB_LP6Wfegu5NOfwJvXn_-vBsAwX8rYiYc0uvsjOYTV23g=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXYOVopzZnaByEnQmAoDQm7lefiQ5T3ipR3GU0lM9Kt_fnH5h3w</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>국내 모바일게임산업의 성장과 무수한 아이디어가능성을 차단시켜버린 가챠, 이익을위해서라면 뭐든하는 중소기업 대기업이 될수없는 이유를 여실히 보여준게임</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.1.26a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45535.07829861111</v>
+        <v>45535.45245370371</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것 같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록 하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우 plaync 고객지원을
-통해 문의하기를 이용 해주시기를 바랍니다.
-감사합니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45535.33881944444</v>
+        <v>45554.82777777778</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.1.26a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -669,58 +657,49 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22fa25f8-2c9d-46e3-a8ed-bd6be8a647d9</t>
+          <t>53729e78-6917-4424-8838-a6227b099fb8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>서상태</t>
+          <t>sm Baek</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLOxT_KJSAAgdJaHCj1x_jmV6lw0tTeTJxutmuu2uTA-7Ezlw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKGqV9y5005Nd2MyNCFRar5wTP_ooKfONXt95AOIR5PnLAgM5I=mo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>두르마리 업데이트 했으면 경치를 주든가 맨날 또같은 패턴 도대체 뭐하냐 죽제도 개선좀 해라 지겨워 죽겠다 맵은 사람은 많고 몹은 없고 글러블 그업맞냐 우리가 얘기해야 고치고 수정하고 지겹지도 안냐 월급 받으면 그만한 가치있게 좀 하자 우리는 돈 쓴다고 맨날 라면먹고 사는게 너거는 소고기 먹겠지</t>
+          <t>good..</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45533.97236111111</v>
+        <v>45535.13581018519</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 남겨주셔서
-감사합니다.
-고객님께 바라시는 만큼 만족감을 드리지
-못한 것 같아 마음이 무겁습니다.
-고객님께서 만족스럽게 즐길 수 있는
-게임이 되기 위해 노력하는 리니지M이
-되도록 하겠습니다.
-고맙습니다.</t>
+          <t>Thank you! We worked hard on creating Raid, and we're delighted to hear that you love it.</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45534.60668981481</v>
+        <v>45546.05068287037</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -730,57 +709,49 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>b9512adb-a1fa-4225-a109-fb7826ff3334</t>
+          <t>0a014dac-89e4-4e96-a78b-53b626f2f0dc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>박찬원</t>
+          <t>김현</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLrBOtVPNv9rm0LOsk2leU7Mp0UqPL8Ki9gIrKzaSMWLnRd5Q=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKSDorjrslsJ7e9GklOTYn5nOoDtAaMGwyK5i6TkPq9Cv7jRQ=mo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>핸드폰으로 결재하니 결재는 됐늦데 다아가 업네요</t>
+          <t>Best of Best^^</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I6" s="2" t="n">
-        <v>45533.49799768518</v>
+        <v>45534.56806712963</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께서는 결제 후 해당 상품이 확인되지 않아 리뷰를 남겨주셨네요.
-안타깝게도 기재해주신 리뷰 내용만으로는 리뷰를 통해 상세한
-확인이 어려운 점 양해 부탁드립니다.
-번거로우시더라도 기재해주신 내용과 주문번호를 작성하시어
-plaync 고객지원를 통해 문의 접수를 해주시면 면밀히
-확인하여 최대한 빠르게 도움을 드리겠습니다.
-감사합니다.</t>
+          <t>Hey! Thank you for the high rating!</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45533.69004629629</v>
+        <v>45555.91746527778</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -790,17 +761,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>525eae94-6b8d-4a8f-923b-7125ab58b993</t>
+          <t>eff1cff7-1cb9-466f-a205-c91d801408fc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>최성용</t>
+          <t>Changgeun Park</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJcK1XhjSMvDeIZldQ9oxuwbmZIJiBnBr0FhseZxiJIqmmVhg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJIR2BmbAQnO0jK1qrS60BqMCZS25_Q03hp2CGEl4k9CXFh0w=mo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -814,25 +785,27 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
       <c r="I7" s="2" t="n">
-        <v>45533.17184027778</v>
+        <v>45534.5425462963</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-즐거운 마음으로 리뷰를 달아주셨네요.
-고객님의 기대에 충족 할 수 있도록
-노력하는 리니지M이 되도록
-최선을 하겠습니다.
-고맙습니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45533.68946759259</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>45546.04884259259</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -840,22 +813,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5cdc6d30-42e2-407e-99a2-ac5e7248e57b</t>
+          <t>d38578df-9f73-4c66-92b4-a82e38c745cd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>김태봉</t>
+          <t>오동호</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXKplrSxzD_2QV_098KPVzStbxN4la6_PgTB9uCcq5X6cW4ftIT</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKCb29i8zuMiUdH7x8EUVrSVqugKM7AsKfCjRwKR9qdf6i5og=mo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>현질천국</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -864,13 +837,27 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
       <c r="I8" s="2" t="n">
-        <v>45532.84381944445</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+        <v>45534.21778935185</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>45554.82491898148</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -878,43 +865,49 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26ab53c0-22a6-4fff-88e7-94820fc8948e</t>
+          <t>66b58ba2-48c3-49b9-88ea-e79d64b222fb</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>최정원</t>
+          <t>Hh Nn</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUjEDyN3s9Tju2MpY7VASuy1w-u8dbKoXnd8u0BS0vIZ6rQE8c</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKMCgXwTd3D90tn0IA7dVWuRjmnDhArO_hODikbu8_MR6EI4g=mo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>뽑기 감사</t>
+          <t>잘만들었는데 장비 꼈다 빼는데 재화 졸라 들어가는게 너무 흠이다. 이거 땜에 안할듯</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I9" s="2" t="n">
-        <v>45532.81336805555</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>45534.06184027778</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>유물은 큰 차이를 만듭니다. 실버 수수료가 없다는 것은 언제든지 챔피언을 다시 장착할 수 있다는 것을 의미하며, 이는 게임의 균형에 부정적인 영향을 미칩니다. 그러나 우리는 이러한 메커니즘을 개선하는 것을 고려하고 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>45534.91554398148</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -924,22 +917,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29301e69-05a5-4ee2-bddb-d74e63f5659c</t>
+          <t>54d0cbcc-b8e1-494f-8188-9551f953e6fc</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>장현탁</t>
+          <t>이한상</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKwCDNCQWEw-1evxObL8VIKv5SODWaQAs5TIIMT8EJ1N7Ao0w=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI4hkMJLE-fmvGTH9v-tKullUo0cZm_0rfccogMQ_I2P-ZK4w=mo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>한번도 안해본 사람은 있어도 한번만 한사람은 없다는 중독성 최강 리니지 짱인듯 !</t>
+          <t>재미있어요</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -950,29 +943,23 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I10" s="2" t="n">
-        <v>45532.80269675926</v>
+        <v>45533.93841435185</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리뷰 남겨주셔서 감사드립니다.
-리니지M을 플레이해 주시는 고객님들께
-만족스러운 서비스를 제공해드릴 수 있도록
-최선을 다하겠습니다.
-감사합니다.</t>
+          <t>높은 평가를 주셔서 정말 감사합니다! 게임을 좋아하셔서 기쁩니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45533.68833333333</v>
+        <v>45544.68976851852</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -982,57 +969,49 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16b21753-63de-405b-9368-a2b54fe365aa</t>
+          <t>3262012c-152f-4c63-ad27-8ea0b08aa885</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>조영수</t>
+          <t>이재민</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIdArG8hOmG9GYjD7VaS4zN52F_2EudxmU7bDe5scP-wyOBoQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLYWMPileG67Ew89YQHShwWEcwkT2joYWzhDFHUjshQ0-_c3A=mo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>젬있긴하지만 돈이 너무 많이 들어요ㅠ</t>
+          <t>보상이 너무짜..</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.3.10a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>45532.79181712963</v>
+        <v>45533.83087962963</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것 같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록 하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우 plaync 고객지원을
-통해 문의하기를 이용 해주시기를 바랍니다.
-감사합니다.
-</t>
+          <t>안녕하세요! 게임에 대한 생각을 공유해 주셔서 감사합니다. 이 의견은 기록되어 추가 논의를 위해 팀에 전달됩니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45533.68804398148</v>
+        <v>45534.91314814815</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.3.10a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -1042,61 +1021,43 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1e9625c6-ae8e-4383-ab9d-81eec9db970c</t>
+          <t>09fbc760-cf64-490b-ad24-678ad290a8ab</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>왕해머</t>
+          <t>junghee lee</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWdiOitEZoutipKst13Jji_qjuoIX0Aezgi116hFj08q1FkKBOQ</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK4jPHCsTrfs4UqawirAKDu1mkHsgudfkDVshHc69ox7J4zSQ=mo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>오픈하자마자 과금하고 여지껏했는데 영비나 빨템 아이템 한번도 먹지못함..전설 인형이나 전설 성물 하나라도 있음 소원이 없겠다..</t>
+          <t>재미있게 하고있어요.</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1.8.88a</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" s="2" t="n">
-        <v>45532.57306712963</v>
+        <v>45533.2959375</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께서는 원하시는 아이템을 획득하지
-못하시어 아쉬운 마음으로 리뷰를 남겨주셨네요.
-혹여, 게임 이용 중 궁금하시거나, 다른 의견이 있으실
-경우 plaync 고객지원를 통해 문의를 남겨주시면,
-확인 후 빠르게 도움을 드리겠습니다.
-추후 게임 이용간 많은 아이템 획득이 있기를
-응원하겠습니다.
-감사합니다.
-</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45533.68607638889</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1.8.88a</t>
-        </is>
-      </c>
+        <v>45544.68862268519</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1104,56 +1065,50 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3025cadf-d82d-4b40-a07c-f74c8a2e84e1</t>
+          <t>ec74322f-b4f6-4540-ade1-7cb2509a015f</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>H성준</t>
+          <t>이훈</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIt1UxCe-2PQ6D-lTku77efylPYLoSnkj96rqu8wwZdkt3FqA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIbCVz3YLkRGcM2-plI_PPJx6G04orokK_h1XjlVxdnKqIghw=mo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>존잼</t>
+          <t>4민5천원 아이템이.실망</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>45532.40415509259</v>
+        <v>45532.87907407407</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M과 즐거운 시간을 보내고 계시다니
-너무나도 기분이 좋습니다..
-소중한 시간 내어 작성해주신 리뷰 내용에 힘입어
-고객님의 기대에 부응할 수 있도록
-더욱더 알찬 컨텐츠로 찾아뵙겠습니다.
-감사합니다</t>
+          <t>안녕하세요! 귀하의 댓글에 감사드립니다!
+저희는 항상 새로운 특별 혜택을 만듭니다. 게임 시작 시 나타나는 혜택을 계속 주시하세요. 보통 이런 혜택은 특히 가치가 있습니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45532.44495370371</v>
+        <v>45534.74896990741</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -1163,52 +1118,51 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19fbdb03-016f-4536-9501-258ead4ad12e</t>
+          <t>ba523874-9135-4c7b-a46e-b484ead9277c</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>김상근</t>
+          <t>온정원</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLt0SzMLCmmvT1AQCxfQsZD4dwzyirEBeAxTBzbqt7pru1M-w=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLPG6knKHFFZoqHbDGrF1xi8EQI3bq8cBiaCYdPGsGVG0PxHA=mo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>도박게임</t>
+          <t>챔피언을 희생시켜 레벨업을 하는게 잔인하며 끔직한 현실사회의 치열함 같았으나 수많은 챔피언들의 스킬을 경험하는데 중독되면서, 버프의 화려한 색채에 눈을 뗄수없게 만드는 정말 놀라운 게임입니다. 퀘스트 진도 보상에 시간가는줄 모르고 하게되고...</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
       <c r="I14" s="2" t="n">
-        <v>45532.33259259259</v>
+        <v>45532.82444444444</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것
-같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록
-하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우
-문의하기를 이용 해주시기를 바랍니다.
-고맙습니다.</t>
+          <t>게임을 좋아하셔서 기쁩니다! Discord 채널을 방문하여 다른 Raid 플레이어와 게임에 대해 논의해 보세요: https://discordapp.com/invite/mYKC5J6 (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45532.45106481481</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
+        <v>45546.03158564815</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1216,22 +1170,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15dbe224-068b-4afa-b7b6-bf64fdb08c23</t>
+          <t>7c7156f7-d146-43b0-b074-b36f60c63ebc</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>신점환</t>
+          <t>윤동환</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJi2bj-0G6PefOjdHjxX4fj-2lIT-yK6TmnK83n53wVbz0G4A=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLa5NqiWHa0pctY7XxzW_kMyTAp6E_d0mAKSOKyImhgUWT9Yw=mo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>제발 요정 소울 개선좀 해주세요 게임명은 리니지m인데 pc 퍼플 녹화기능 아니면 게임사용이 불편하다는게 납득이 안되네요</t>
+          <t>ㅡㅇ 나 오늘</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1240,30 +1194,27 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
       <c r="I15" s="2" t="n">
-        <v>45532.32940972222</v>
+        <v>45532.65608796296</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-충분한 재미를 드리지 못한 것 같아
-너무나도 마음이 무겁습니다.
-남겨주신 소중한 리뷰를 통해 보다 더
-개선된 서비스와 즐거움을 드릴 수 있도록
-최선을 다하는 리니지M이 되겠습니다.
-궁금하신 사항이나 건의사항이 있으실 경우
-언제라도 plaync 고객지원 문의하기를 통해
-문의해 주시길 바랍니다.
-고맙습니다.
-</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45532.44462962963</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
+        <v>45554.82304398148</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1271,43 +1222,49 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1f8a4bd1-0afd-4042-88f7-453f0461b392</t>
+          <t>dbfc1d7d-b4fa-4be0-902b-95e1d7c64a47</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>정강희</t>
+          <t>장지훈</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJsPwLvXHpSGlqyWFkkDV8JYihuVXXkpBu6ibVdxjFVSu4NiA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKWN3LJYgoH9auLVAiGC7hn8dncE3Vbglb_dlD9KE2_BBAOYg=mo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>이런 그지같은 게임 하지말자 별 한개두 주기 아깝다</t>
+          <t>재미있ㅇㅓ요</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I16" s="2" t="n">
-        <v>45531.94385416667</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>45532.56060185185</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>우리는 정말 재밌는 게임을 만들고 싶었고, 만들어서 기쁩니다. 긍정적인 피드백을 주셔서 감사합니다! 여러분의 챔피언이 아레나에서 가장 강해지길 바랍니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>45546.0309837963</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -1317,22 +1274,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6f115145-1c32-4486-94f3-a456bf3bba2b</t>
+          <t>b09cc4d7-b804-4a4d-8d27-47fadb34026b</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>JAE SIK OH</t>
+          <t>권순철</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIbJFQCdeRwBqBG1wRVtyi8Fg601e1YPcHdVRE01ZD4MlLyqQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKr_f4Bsopst5V-nqSBrQcIEvQd66i-dJzVHWzdWJBgXtlKQg=mo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>레벨 올리기 쉬워요.</t>
+          <t>재미나네요</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1343,17 +1300,23 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I17" s="2" t="n">
-        <v>45531.79274305556</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>45532.3503125</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>시간을 내어 생각을 공유해 주셔서 감사합니다. 게임을 좋아하시는 게 정말 대단합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>45544.68434027778</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -1363,56 +1326,49 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>81df5376-7ac2-40a9-a4c4-1b8d8a98b242</t>
+          <t>dd5460ba-aca6-4c39-ab03-e10f83813ad4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>권현수</t>
+          <t>문현주</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUDVmmtgmIFNsKkIRwXk4l_0-x9hjQgnAOLP5uE1pq4fMOnsFvJ</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI88FPPGk_M1irKGAky47IRQkYzGS65GjkJOrrqC43SP5yrpw=mo</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>그냥 최고의게임ㅎㅎㅎ10년이상유지되는 겜이됫으면 좋겠습니다.</t>
+          <t>할만 합니다</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I18" s="2" t="n">
-        <v>45531.50613425926</v>
+        <v>45532.16471064815</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M과 즐거운 시간을 보내고 계시다니
-너무나도 기분이 좋습니다..
-소중한 시간 내어 작성해주신 리뷰 내용에 힘입어
-고객님의 기대에 부응할 수 있도록
-더욱더 알찬 컨텐츠로 찾아뵙겠습니다.
-감사합니다</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45531.64375</v>
+        <v>45546.02667824074</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -1422,53 +1378,51 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3e51386d-e4c8-4e5f-bf23-ba24ade7ca9d</t>
+          <t>3ab313f0-3e17-4dba-8eb2-c315f14d7920</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>장희운</t>
+          <t>김재연</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW04IXlErT8WDVcx553_wpaYY9C9dt3C85MYKBXu3P96N6NWUaZ</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIevYg2Ww94Qi4dY12vHMerS4_yXj5My-ORb9U_iKiTkb9v2Q=mo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>해도너무해서 방금 장비다지르고 계정다 탈퇴했다 리니지24년만에 계정삭제하고 이제 쳐다도안보련다</t>
+          <t>very good^^</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
       <c r="I19" s="2" t="n">
-        <v>45531.35972222222</v>
+        <v>45531.74112268518</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-충분한 재미를 드리지 못한 것 같아
-너무나도 마음이 무겁습니다.
-남겨주신 소중한 리뷰를 통해 보다 더
-개선된 서비스와 즐거움을 드릴 수 있도록
-최선을 다하는 리니지M이 되겠습니다.
-궁금하신 사항이나 건의사항이 있으실 경우
-언제라도 plaync 고객지원 문의하기를 통해
-문의해 주시길 바랍니다.
-고맙습니다.</t>
+          <t>Thank you for your kind words! It is nice to hear that you like our game. Good luck at the Arena!</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45531.65387731481</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
+        <v>45546.02478009259</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1476,60 +1430,43 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>c6137e71-ebae-4d3b-9b56-c7cf259cbbfb</t>
+          <t>544955e8-2435-4006-8efb-04d889288eba</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>모래시계</t>
+          <t>Jc L</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU-52NGkoVyMPsOGj7dZKML_mgTAEqnVkluf-e7PasqzSHn_v4</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJxtikB_m174VC6RQql5aq9G4cJLxQ0xRJHaBpfNpXRNP-uPg=mo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>확률이 개 사기인 게임 70개 10% 넘는데도 전부 쏘나기 맞음 그럼 0.7% 진짜 개사기입니다 택진이 사기쳐서 운영합니까?' 이딴 도박 않한다 망해라 인간들아 사기꾼들</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1.8.85a</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" s="2" t="n">
-        <v>45530.79569444444</v>
+        <v>45531.6096875</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것
-같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록
-하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우
-문의하기를 이용 해주시기를 바랍니다.
-고맙습니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45531.65340277777</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1.8.85a</t>
-        </is>
-      </c>
+        <v>45554.82263888889</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1537,55 +1474,49 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6f7e1528-a27f-4c4a-8995-3ba6472ff4b6</t>
+          <t>53cdbc6a-9864-4220-8aee-79a3c260ee73</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>정배경</t>
+          <t>Jihun beak</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWQkpwO2diCC3Wk4GlJP6usUy2bmLRQvU6fjfYZkGED_WBZVfwg</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJP2qjoWaiaEiaAEp2m1mvqOdU23PhwF2gDtEa3DpGLuSqaYg=mo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>왜 이러는거죠?? 서버접속중 에러뜨는데요 ㅠ</t>
+          <t>재밌어요</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45529.65173611111</v>
+        <v>45531.60491898148</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-게임 접속이 가능하지 않아 리뷰를 남겨주셨네요.
-빠른 도움을 드리고 싶지만, 죄송하게도 리뷰 답변으로는
-상세한 도움을 드리기 어려우니 번거로우시겠지만
-plaync 고객지원으로 문의 접수 부탁 드리겠습니다.
-감사합니다.</t>
+          <t>긍정적인 피드백을 주셔서 정말 감사합니다. 앞으로도 많은 승리를 기원합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45530.4420949074</v>
+        <v>45544.68157407407</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -1595,55 +1526,49 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>00fd77b1-263f-4aec-b043-3f64881c0845</t>
+          <t>16738094-50fe-4ba1-a680-f65fd00d176b</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Depo</t>
+          <t>young il kim</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKGzie52sB6WDQ7Hna5NwQqzfmURxr76cNHuMfhGw2jsTsqfw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVm1fcZZmlAh9KPTnJAYJiI0qSTjjDakMNmOti0AUea9cTWshVo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>오픈부터 7년간 플레이함. 내 게임생에서 리니지가 그래도 최고였음. 사행성, 과금유도 때문에 별 하나 뺌. 보완해서 VR로 출시되면 다시 돌아올 예정.</t>
+          <t>재미있네요</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.8.15a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45528.5856712963</v>
+        <v>45530.50924768519</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M을 이용해주셔서 대단히 감사드립니다.
-보다 만족하실 수 있는 서비스 제공을 위해
-항상 최선을 다하는 리니지M이 되도록 더욱
-노력하겠습니다.
-감사합니다.</t>
+          <t>시간을 내어 피드백을 공유해 주셔서 감사합니다! 게임을 좋아해 주셔서 기쁩니다. 게임을 더욱 좋게 만들기 위해 최선을 다하고 있습니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45528.60104166667</v>
+        <v>45553.96918981482</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1.8.15a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -1653,48 +1578,51 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>fcde8b5c-64e6-41fb-8c5e-b786e9e5afc1</t>
+          <t>81258c6e-d5b6-4bb4-a810-7fe8b24721b8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>양원주</t>
+          <t>조용훈</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocK0oMnZtg5B9M3uV-XJYYur8YH1SrRuwvLV7D_-H0kwgeo2AA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIhq_bzQGDzK_Egv5rAp01NG-_nm4laoyvoAdCiGfgUBOTGeg=mo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>용량 아까움</t>
+          <t>스토리 부족이 좀 아쉽</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
       <c r="I23" s="2" t="n">
-        <v>45526.51288194444</v>
+        <v>45530.38320601852</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것 같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록 하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우 plaync 고객지원을 통해 문의하기를 이용 해주시기를 바랍니다.</t>
+          <t>안녕하세요! 의견을 공유해 주셔서 감사합니다. 저희는 게임을 더 좋게 만들기 위해 끊임없이 노력하고 있습니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45526.70175925926</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+        <v>45546.01638888889</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1702,22 +1630,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>418f3c71-9bbe-4af4-b445-a9fe9140991f</t>
+          <t>65ef0b07-5000-49f8-87d1-55cfb16d647d</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>언제나</t>
+          <t>밤드리</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVSMtKdBJSPqTXsedtdj3DfHOGJMMvcaal5M9ts1c3kws7Nu9MJ</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKebiK-Qg0RZhliOlRcievx8z0YyjOLg5B91RMq1QYlYhTwkQ=mo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>전화번호가 바뀌어서 인증을 못하고 있습니다 어떻게 해야 하나요?</t>
+          <t>간만에 굿 게임 찾음</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1728,32 +1656,23 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45526.38894675926</v>
+        <v>45529.61439814815</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-말씀해주신 부분은 죄송스럽게도 리뷰를
-통해서는 상세한 확인이 가능하지 않습니다.
-다소 번거로우시더라도 plaync 고객지원에서
-문의하기를 통해 관련 사항을 전달해주시면
-필요한 도움을 드릴 수 있도록 노력하겠습니다.
-안내해드리는 내용을 참고하시어 원만히 해결
-하시길 바랍니다.
-고맙습니다.</t>
+          <t>긍정적인 피드백 감사합니다! Teleria에서 당신의 소식을 듣기를 바랍니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45526.58146990741</v>
+        <v>45541.82991898148</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -1763,37 +1682,51 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2715f2d7-1b21-476e-914e-c23e8d9537e5</t>
+          <t>db34ec9e-2daa-492a-aea3-73cfef39413d</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>스타크아리아</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ0yvsiIgEMBcm3gxB9M3kyzgUzZMR9hmZKbz_MUql_eUCqIw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUo44cvd1ZAjzwVaODUTUtIlljpt-Kabr_AuDJd6eCHVKzWaKZc</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>대단해</t>
+          <t>해보세요... ㅎㅎ</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
       <c r="I25" s="2" t="n">
-        <v>45526.24747685185</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+        <v>45529.28321759259</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>감사합니다! 저희는 게임을 만드는 데 많은 노력을 기울였습니다. 여러분이 게임을 좋아하신다는 사실을 알게 되어 기쁩니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>45546.01017361111</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1801,37 +1734,51 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7a823abe-012f-44d1-9dd6-f36a264514db</t>
+          <t>647b9e31-aa41-4da1-a045-438bc3875493</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ᄆᄆᄆ</t>
+          <t>고구마호박vs 호박고구마</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKO8dscn-5KWelmQGrst6-ieljDBv_4PFiYFdsFx-NYnLV-3aw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWs5A6oWNV6m-Zl4vFpFWLIaXnhthec8_nNjjWSK14gjTgrn9Mt</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>암적인 겜</t>
+          <t>굳</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
       <c r="I26" s="2" t="n">
-        <v>45524.02061342593</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+        <v>45529.04076388889</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>리뷰 감사합니다. 재밌게 즐기세요! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>45532.07865740741</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1839,43 +1786,49 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>b1abb29e-abb6-4dc7-aedc-0304a99e833a</t>
+          <t>f0ca798c-e215-4921-b895-43f387cc1c4d</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>독종</t>
+          <t>근일</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKwYp15f9jLan3bBKcu7FomNCIxB4sHpXmv_kOhwvBvN1xUVw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJAs2EiBoMqgjW7_IqrHsmnlvg_MME1o45u_n-a_RdLkvbKxQ=mo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7주년 되니 이제 망겜 개나소나 다막피 돈쓰라고 아주 대놓고 패키지 팔기 ㅋㅋ 난 이제 접고 다신 안한다 엔시게임망게임</t>
+          <t>항상 목표가 높아지는 플레이</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45523.94804398148</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>45527.87508101852</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>시간을 내어 피드백을 공유해 주셔서 감사합니다! 게임을 좋아해 주셔서 기쁩니다. 게임을 더욱 좋게 만들기 위해 최선을 다하고 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>45546.00236111111</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -1885,43 +1838,50 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>a86893d5-6e93-4e4b-acb0-1f297cf410dc</t>
+          <t>a6675338-66ed-4893-9df0-3ab3a6b45318</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>똑딱똑딱</t>
+          <t>김건호</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXCZqvJMZ6VJWJPN6f6HdhoZdOGtP3rUAThza8dh4K2xDuM1Sad</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLpDYLVJNQEbOVT1CJrWkqLuA-yau-sKF7WFBgdQuSm7ijfeA=mo</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>예전에 nc 아뒤로 이메일 로그인했었는데.. 통합 아뒤 넣는거로 바뀌고나서.. 별짓다하고 인증 다해도 찾을수가 없네.. 그냥 케릭 버린다.. 걍 안할께.. 짜증..</t>
+          <t>멋진게임</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45523.88282407408</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>45527.70427083333</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>안녕하세요!
+게임을 좋아하셔서 기쁩니다. 저희 포럼에 가입하여 다른 Raid 플레이어와 게임에 대해 토론해 보세요: http://bit.ly/raid_forum (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>45546.00158564815</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -1931,22 +1891,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7c2799bd-b7d8-46c9-96a9-9417b62f1659</t>
+          <t>a30069a6-9ee8-4df3-9342-3c234c17697d</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>M Q</t>
+          <t>신상용</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXoR34kBOJbdUcDxzB8DaOnsnqXtcn7TetKwSlWlJUKxXTWg4g</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKR-HHhVx49G5uP06j6KHLZZh0tgetaUImiPcdZ_Bi9PW6GIw=mo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>접속대기중 비정상적인요청이라고 뜨면서 강제종료가되는데 어떻게해야하나요?신섭임</t>
+          <t>잼있음</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1957,34 +1917,23 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I29" s="2" t="n">
-        <v>45523.00232638889</v>
+        <v>45527.58430555555</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님 리니지M 실행이 원활하지 않아
-리뷰 남겨주셨네요.
-이용에 불편을 드려 죄송합니다.
-해당 내용은 리뷰를 통해서 확인이 어려운
-부분입니다.
-해당 현상이 지속된다면 번거로우시겠지만
-해당 내용을 확인 할 수 있는 스크린샷과
-상세 내용을 기재하셔서 plaync 고객지원으로
-접수 부탁 드립니다.
-감사합니다.</t>
+          <t>감사합니다! Raid를 만드는 데 열심히 노력했고, 여러분이 Raid를 좋아하신다는 소식을 듣고 기쁩니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45523.40899305556</v>
+        <v>45541.81503472223</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -1994,49 +1943,51 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>d40715eb-8702-4bc2-a56c-3fe90c4dc73b</t>
+          <t>992a5221-0028-43eb-b66b-78ca6a333e7f</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>초이반스</t>
+          <t>changil lee</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJdjzORD5gDtdTK7T5MUNNUDKQLlyTAmf1k2HFJwuOcaOJdpw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWg2P7oOmi48xfgQSrwf1dd-cBmyS9KIpsQi9KP7xJARpUHBq-T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>돈빨겜</t>
+          <t>잼나요</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
       <c r="I30" s="2" t="n">
-        <v>45522.42934027778</v>
+        <v>45527.57480324074</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-저희 게임이 고객님께 즐거움을 드리지
-못한 것 같아 죄송스러운 마음입니다.
-고객님께 기쁨과 즐거운 컨텐츠를 제공할 수
-있도록 노력하는 리니지M 되겠습니다.
-감사합니다.</t>
+          <t>감사합니다! Raid를 만드는 데 열심히 노력했고, 여러분이 Raid를 좋아하신다는 소식을 듣고 기쁩니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45522.6415625</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
+        <v>45553.96701388889</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2044,22 +1995,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>969f9108-a00e-40c1-8d52-9c11975c648a</t>
+          <t>98970fb3-0ec2-4bad-91a5-56d7ee0f4284</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>조인호</t>
+          <t>남구여운쌤</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL3HfHVsWu8IXvfQg1iiMdp_hJRTVA39rLgTaUeLSSgyC0ceA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLqIk3As5F9Z0iLm7bNakG9q39FjgmY2qQutcOZBQ1qQEAfNQ=mo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>재미있어요 ^^</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2070,31 +2021,23 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45521.89359953703</v>
+        <v>45526.36457175926</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M과 함께 즐겁게 플레이하고 계시다니 정말
-기쁜 마음입니다.
-고객님께서 남겨주신 리뷰를 잊지 않고,
-더욱 발전해나가며 리니지M만의 특별한
-매력을 보여드릴 수 있도록 최선을 다하겠습니다.
-감사합니다.
-</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45522.37326388889</v>
+        <v>45545.99944444445</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -2104,57 +2047,49 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>d63c50ab-4048-4832-a3b8-384117f49af6</t>
+          <t>d2f4c534-228f-42ff-87e8-a680825f55bc</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>미율</t>
+          <t>도정수</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIFu19nOCiuWWoZN09q_HNH-KmnXCeuCs6jOTKGWWkvjv4NNQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIOPnJWgNQPzRN19eEPw6nFD1j42hRg_xdufGRB63v2iMJJ0A=mo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>가챠의 극한 수십억은 투자 해야한다! 시작도 하지마.</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.5.7a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45520.82649305555</v>
+        <v>45525.63241898148</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께서는 게임의 성장과 앞으로의 즐거움을
-위해 보탬이 되는 소중한 리뷰를 남겨주셨습니다.
-다만 즐거움과 재미만을 드리지 못해 속상할 따름
-입니다.
-고객님의 뼈와 살이 되는 소중한 의견을 새겨듣고
-참고하여 성장해가는 리니지M이 되겠습니다.
-감사합니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45521.38252314815</v>
+        <v>45545.99732638889</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.5.7a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -2164,48 +2099,51 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>68b001dd-bea4-43d1-a473-0d6a19f97d74</t>
+          <t>96361cd8-8b1b-42f7-bcdb-9518548dc28a</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>정성식</t>
+          <t>빠방</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJMG-mVijZ_HcE8T6vAhDLD1iL019fzoWCEVddSQj_vvt5l6A=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVQQPNvnv8x_uMQCH_kBMVpOqOQOMuuXOIPqG4BzH1i6vBcuXk</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>진짜. 생까지 말고 막피부터. 정리하세요. 데포1섭. 게임하기 싫어지네. 자기가 강하고 초보 유저들까지죽이는건 아니잖아요. 말좀 들어요 생까지말고. 케릭을 죽이면. 그케릭. 부당한 사유를주던가해요. 한달정지라던가. 진짜못해먹겠네</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
       <c r="I33" s="2" t="n">
-        <v>45520.74081018518</v>
+        <v>45525.60875</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것 같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록 하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우 plaync 고객지원을 통해 문의하기를 이용 해주시기를 바랍니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45521.38206018518</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
+        <v>45541.80061342593</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>9.10.1</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2213,37 +2151,51 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11f79b99-9c8d-4b55-9dfb-7b7ffb5a64b8</t>
+          <t>167b7fcd-8d7c-4d18-b93a-56d4ab34c605</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SUNG LEE</t>
+          <t>이남섭</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVE1EYWxMipNmeL-XHtUZYR3wBfW70-SennYiY-gj1j_jJ5G6TZ</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocL81PSZhJbp1iWQBW8xqIx1HgzWGCj-25f3oghpPQTAi_bwIQ=mo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>리니지는 질병이다</t>
+          <t>할만한 게임</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>9.10.0</t>
+        </is>
+      </c>
       <c r="I34" s="2" t="n">
-        <v>45520.45085648148</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+        <v>45524.64115740741</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>피드백을 주셔서 감사합니다! 게임을 즐기셔서 기쁩니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>45545.98743055556</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>9.10.0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2251,55 +2203,49 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>b4b1bc83-7dfd-41de-a6b0-28271bc90eba</t>
+          <t>7818beda-85ae-4b05-b1a8-7251c3fe577a</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>삽이</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKxhR84R5a1QzDtyeNnuOVkyT6BTS1apiDSYEYtSPrz4QNGbio=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUIrEJITqKBdZ7O4gTFahVOV4XjxxO5vdiMjGGPcXOCyPZ78UuK</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>돈만 밝히는 게임</t>
+          <t>좋은 장비 및 캐릭터좀 더 죠요</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45520.37144675926</v>
+        <v>45524.60255787037</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것 같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록 하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우 plaync 고객지원을 통해 문의하기를 이용 해주시기를 바랍니다.
-</t>
+          <t>안녕하세요! 리뷰 감사합니다. 저희를 더 발전시키는 데 도움이 됩니다. 게임에서 행운을 빕니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45520.39674768518</v>
+        <v>45544.58430555555</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.1</t>
         </is>
       </c>
     </row>
@@ -2309,56 +2255,49 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>b1634d06-3b93-4778-a022-2b6bb2295839</t>
+          <t>825d17aa-43c4-4914-ae70-ead23fc31875</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>블루라군</t>
+          <t>지쑤세</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUmC4jO0WZdzHaw31KQeL2If1ua8G2ipLowfPRhxR0AyDPO8a2u</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX0uV5jqhMwB8T8p60Iyu3OBMBAIxVgrkB4N6S7yRTb4d8wPaov</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>자동귀환 시스템좀 추가해주세요. 피설정으로 자동귀환설정 옵션 하나넣으면되는데 어렵나요 타게임은 잘만해주던데 막피때문에 중립유저로서 게임을 할수가없네요 과금유저를 위한업데이트만 하시지말구요 운영이 잘됨을 느끼게 해주세요 이런것도 개선이되지않는다면 타게임으로 갈게요 수고요</t>
+          <t>이미 환불거절해서 승인도못해요 이게뭡니까 가족이동의 없이 구매한걸 왜 제가 부담해야되는거죠? 진짜 어이없네요 상품을 안사용했고 환불승인하려해도 거절을 때려박으셨는데 어떻게 환불을해요 일일보석패키지를 구매해서 사용하지도않았고 환불요청해도 몇일후 돌아오는건 환불거절 저보고 어쩌라는건가요?</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.0</t>
         </is>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45519.66637731482</v>
+        <v>45524.5341550926</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-말씀해 주신 내용은 plaync 고객지원 문의하기를
-통하여 건의사항으로 한 말씀 부탁드립니다.
-즐거운 컨텐츠를 제공할 수 있도록 노력하고
-발전하는 리니지M이 되겠습니다.
-감사합니다.
-</t>
+          <t>안녕하세요! 이런 상황에 직면하게 되어 매우 죄송합니다. 환불은 게임이 아닌 스토어 측에서만 확인할 수 있습니다. 저희는 앞으로 비슷한 상황이 발생하지 않도록 Google Play 구매 승인을 설정하시기를 권고드립니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45520.39489583333</v>
+        <v>45525.59674768519</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.0</t>
         </is>
       </c>
     </row>
@@ -2368,22 +2307,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01fcc1d3-080f-4248-b522-6588d3dfbd8a</t>
+          <t>ec1cc9d9-afe5-4e34-bd0d-0ed1e8cec9d0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>김형민</t>
+          <t>신세화</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJpDXuvIFI___gdOOPLwv-T2JGRXUpT9DaLJhrH7eveD95ezw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKwBo9ZqJSNzb7aZGmJcc7E_8BiL6K6PBNoQ7avOkyx3rKAmw=mo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>좋아요~</t>
+          <t>조아요</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2394,30 +2333,23 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.0</t>
         </is>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45519.05550925926</v>
+        <v>45523.45275462963</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M을 이용 후 너무나 즐거우셔서
-정말 영광입니다.
-고객님께 보답하기 위해 보다 더 나은 컨텐츠
-제공으로 만족감을 드릴 수 있도록 노력하는
-리니지M이 되겠습니다.
-고맙습니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45519.43105324074</v>
+        <v>45540.80931712963</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.0</t>
         </is>
       </c>
     </row>
@@ -2427,51 +2359,51 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>918ce14a-35a7-43fe-85d3-fbc51d54321b</t>
+          <t>e9cab7d2-8a7e-4af8-a396-8187933b86ee</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>빡대가리</t>
+          <t>나홀로집에</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLclhuHlg56GPrE519kgJC7JH-fI4MRJZIHceI7-VYhwaI76Q=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVCrwVclpR-kBETtsP9O7X4rjqznuc3C62G1-Ac1aLe-wtLNZPu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>용사패키지 받았는데 왜 신서버를 안열어줍니까 용사 그거 써야하는데 받는거는 받게해주면서 서버를 쳐 잠궈놓으면 하라는거냐 ㅇ하지말라는거냐 도대체 무슨 생각으로 일을 하는건지 궁금하다</t>
+          <t>재미잇네요^^</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>9.10.0</t>
+        </is>
+      </c>
       <c r="I38" s="2" t="n">
-        <v>45518.64634259259</v>
+        <v>45523.35416666666</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-말씀해주신 부분은 죄송스럽게도 plaync
-고객지원에서 문의하기를 통해 관련 사항을
-전달해주시면 도움을 드릴 수 있도록 노력
-하겠습니다.
-안내해드리는 내용을 참고하시어 원만히 해결
-하시길 바랍니다.
-고맙습니다.</t>
+          <t>게임을 즐기고 있다는 소식을 듣고 기쁩니다! 게임을 더욱 개선하기 위해 노력하고 있습니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45519.43064814815</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
+        <v>45540.80537037037</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>9.10.0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2479,55 +2411,49 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4d4eee1a-7e49-4d59-aa9b-40c01b8ba95d</t>
+          <t>70247f7c-ea58-4ec3-811a-1aa758e101f0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>김주연</t>
+          <t>신덕진</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLtrCa3iZmoMri--KTViXr1QrmAqQCLkdkZWTPYfZWVTIVuQA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKOxBLyAkRH72SJ5mflTVcgOC4W1DsM3flBQ2la9hPrqjzH_g=mo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>아이고</t>
+          <t>즐거운</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.10.0</t>
         </is>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45518.48680555556</v>
+        <v>45523.05480324074</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리뷰 해주신 의견에 귀 기울이며 겸손하도록
-더욱 노력하겠습니다.
-언제나 고객님 만족을 위하여 애쓰고 있으나
-아직도 부족한 것 같아서 마음이 무겁습니다.
-고맙습니다</t>
+          <t>리뷰 감사합니다. 재밌게 즐기세요! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45519.42920138889</v>
+        <v>45540.80167824074</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.10.0</t>
         </is>
       </c>
     </row>
@@ -2537,58 +2463,49 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>a251be6d-b01a-4100-9f7c-7f00fc46a982</t>
+          <t>62b94991-1f6a-40b2-adc4-9c8556d90f3c</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>원사장</t>
+          <t>여환구</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV45KHFuoZ1LJYOphZwgfaR1ZT77Ib0qg7EthN5i1cZNRrl3Ro8bA</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ4uqq1yP5ZPbz2qDNBBhj1myHqCYm7PHH9NML_2Ng83JpIZQ=mo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>●▅▇█▆▅▄▇ 법사 클래스 케어좀 하세요</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.0</t>
         </is>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45518.39746527778</v>
+        <v>45522.85625</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께서는 개선사항에 대해 리뷰를
-남겨주셨네요.
-남겨주신 리뷰를 통해 더욱 즐거운 게임 환경을
-제공해 드리기 위해 최선을 다하고있습니다.
-해당 내용에 대해서는 plaync 고객지원
-문의하기를 통해 남겨주시면, 적극 반영에
-노력하도록 하겠습니다.
-감사합니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45518.49605324074</v>
+        <v>45540.79836805556</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.0</t>
         </is>
       </c>
     </row>
@@ -2598,22 +2515,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0f11a52f-afba-452f-acbb-d4f4ead73188</t>
+          <t>13c8e065-4e48-446e-ae0b-ef32302b84d2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>한동훈</t>
+          <t>Rookii P</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLMjrfWrguQGva5LhwS1bqV0aL85xhDUGESR9BwKwARJW1Hhw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKaoIT2IxxK-Meb9lxsxFbO_AX7hutd-fDJoZL-SgNfVo-fxw=mo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>점점 재미가 없어짐</t>
+          <t>시시해</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2622,36 +2539,19 @@
       <c r="G41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>1.8.84a</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" s="2" t="n">
-        <v>45518.30677083333</v>
+        <v>45522.47028935186</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 기대에 미치지 못한 것 같아서
-마음이 무겁습니다.
-만족스럽게 플레이 할 수 있는 게임이 되기
-위하여 늘 애쓰도록 하겠습니다.
-궁금하신 사항이나 건의사항이 있으실 경우
-언제라도 plaync 고객지원 문의하기를 통해
-남겨주시기 바랍니다.
-감사합니다.</t>
+          <t>안녕하세요! 의견을 공유해 주셔서 감사합니다. 저희는 게임을 더 좋게 만들기 위해 끊임없이 노력하고 있습니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45518.49233796296</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>1.8.84a</t>
-        </is>
-      </c>
+        <v>45523.92981481482</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2659,58 +2559,50 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>f2815179-d3c7-467c-889f-83b66f3bedb3</t>
+          <t>a6b941f7-0c4b-457a-bd12-413c94a9662e</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>신용환</t>
+          <t>박현주</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL1o-rh2BMjoDwfpMYAr2Spe2_06iABDpMW0QUjXmAuBE8zIQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIta7VXB3jBI2Nh-3TbrxVc4lUTsDnlUBBJNI5Xa4yiqspj-A=mo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>뭔 이딴게임이 있냐 허구헌날 이벤트가 패키지로 돈빼먹을 생각뿐이 못하냐 내가 이게임을 시작한게 잘못이지 절대 이런게임 하지마세요 진심 노답 쓰레기 게임 nc8</t>
+          <t>할만한게임</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.0</t>
         </is>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45518.29766203704</v>
+        <v>45522.46771990741</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M을 통해 고객님께 즐거운 경험을
-제공해 드리지 못한 것 같아 마음이 무겁습니다.
-앞으로 고객님께서 만족하실 수 있는 게임이
-될 수 있도록 노력하는 리니지M이 되겠습니다.
-궁금하신 사항이가 건의사항이 있으실 경우
-언제라도 plaync 고객지원 문의하기를 통해
-남겨주시기 바랍니다.
-감사합니다.</t>
+          <t>안녕하세요!
+게임을 좋아하셔서 기쁩니다. 저희 포럼에 가입하여 다른 Raid 플레이어와 게임에 대해 토론해 보세요: http://bit.ly/raid_forum (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45518.49133101852</v>
+        <v>45540.76979166667</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.0</t>
         </is>
       </c>
     </row>
@@ -2720,59 +2612,49 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>faf7ced8-cbd7-44cc-a180-501319ec32fe</t>
+          <t>6b4a66a8-35cd-4f23-881a-97669adb7dac</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>최상우</t>
+          <t>김완기 (미미부찌)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIsaeaDp_GUvd5_TZvogUZ92SzpNCplWiUv8TDGFXdaNGuKBw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUxqn1UhwY23wj-2fPgS6TXMHK6ugpR7fTUjsnaVIBwlWnUUlv6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>다시 복귀해서 재밌게 플레이중 입니다. 영웅변신 영웅인형 영웅성물 영웅스킬이 가지고싶습니다ㅠㅠ 앞으로도 더욱 흥행작이 될수있도록 기원 합니다!!</t>
+          <t>쓰리콤보</t>
         </is>
       </c>
       <c r="F43" t="n">
         <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.0</t>
         </is>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45518.20717592593</v>
+        <v>45522.16858796297</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-만족스럽게 플레이해 주신 것 같아 굉장히
-뿌듯합니다.
-현재에 안주하지 않고 더욱 즐거운 경험을
-드리기 위해 노력하는 리니지M이 되도록
-노력하겠습니다.
-궁금하신 사항이나 건의사항이 있으실 경우
-plaync 고객지원 문의하기를 통해
-문의해 주시길 바랍니다.
-고맙습니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>45518.48962962963</v>
+        <v>45540.7616550926</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>9.10.0</t>
         </is>
       </c>
     </row>
@@ -2782,22 +2664,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>f3b7da19-2442-4895-9209-163f8b619f85</t>
+          <t>af36c0ef-d344-4226-bcde-196130b8c070</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>이k88</t>
+          <t>이창길</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIRZfIoUq8M42HUhyglTOLRAxCYQ6JTQvBXxOaSN0T4lPMcnQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLAEsPQNiGA6-0EGwluRZP_TzgCAO0GlCDiE3YF_5wcxAN5ew=mo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>추억의 게임</t>
+          <t>잼있습니다 ㅎ</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2808,28 +2690,23 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.10.0</t>
         </is>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45516.92576388889</v>
+        <v>45521.79704861111</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-소중한 리뷰 남겨주셔서 감사합니다.
-고객님의 의견을 항상 경청하며 더 커다란 즐거움으로
-보답해 드릴 수 있도록 최선을 다하는 리니지M가 되겠습니다.
-감사합니다.</t>
+          <t>게임을 즐기고 있다는 소식을 듣고 기쁩니다! 게임을 더욱 개선하기 위해 노력하고 있습니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>45517.38061342593</v>
+        <v>45540.75424768519</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.10.0</t>
         </is>
       </c>
     </row>
@@ -2839,58 +2716,44 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>f4d3d548-6cdc-416d-b807-5f05e065108b</t>
+          <t>e919baf1-cf88-4f9a-96d6-eebff210ee0d</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>정해광</t>
+          <t>시프</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIuu65VCrhM2oNZgvrsz_DZaiMi-5gz7yey3XUKnPXB-umrqg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWaG5cVKECvdRr-UsxVKMjiLm3TcD01SbUepocRTAvnRn4I4dZ4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>사람을 거지로 만드는 도박</t>
+          <t>못만들었는데 키 얻어야 되서 강제로 합니다</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>1.8.83a</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" s="2" t="n">
-        <v>45516.81739583334</v>
+        <v>45521.59563657407</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께 만족스러운 게임이 되지
-못한 것 같아 마음이 무거울 따름입니다.
-즐거운 컨텐츠를 제공할 수 있도록
-노력하고 발전하는 리니지M이 되겠습니다.
-고맙습니다.
-</t>
+          <t>안녕하세요! 저희 디스코드 채널에서 질문에 대한 답변을 찾을 수 있습니다: https://discordapp.com/invite/mYKC5J6
+저희 모더레이터가 분명 도와드릴 겁니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>45517.3759375</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>1.8.83a</t>
-        </is>
-      </c>
+        <v>45540.75054398148</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2898,56 +2761,49 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>64d8bb48-55db-4481-b0b1-924556ba07e5</t>
+          <t>890164ec-9b84-416a-86ab-d9198bad957f</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>서인</t>
+          <t>강상수</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKiL_dECFrsdjE35LqooUYXifil8b4Guc6SvtWPaTeJ9WxWsQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK2MGdjcbZtB1nOR0soKcjYdQYNdWJ25aondmdO8t-Ko0eU0A=mo</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>재미있은</t>
+          <t>즐겜할께요. ㅋ감사</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1.8.13a</t>
+          <t>9.10.0</t>
         </is>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45516.37978009259</v>
+        <v>45521.57136574074</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-남겨주시는 리뷰에 감사드립니다.
-소중한 의견에 귀 기울이며 게임 만족감을 위하여
-최선을 다하겠습니다.
-아덴월드의 여행 모험에서 행운이 함께 하시기를
-바랍니다.
-감사합니다</t>
+          <t>높은 평가를 주셔서 정말 감사합니다! 게임을 좋아하셔서 기쁩니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K46" s="2" t="n">
-        <v>45516.5183912037</v>
+        <v>45525.62259259259</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1.8.13a</t>
+          <t>9.10.0</t>
         </is>
       </c>
     </row>
@@ -2957,50 +2813,51 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>f6a6e26c-c69d-4497-b615-225b31cd1605</t>
+          <t>ddd3fc6c-47b8-46fd-bed6-01aa7528eba8</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>적혈귀분신만천벌</t>
+          <t>김광욱</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUonXEsIFrAOTDx_k_AYZdft_48ur94xekkFEA17wqAybu2ME-H</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI3RkdF5EAnMQx4b0e1cGODw8Gjlm0gwds7hkSP-ZiQv7R_3A=mo</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ㅋㅋㅋㅋㅋㅋㅋㅋ난 소고기 먹을란다 개고기 많이들 드셔</t>
+          <t>잼따</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>9.10.0</t>
+        </is>
+      </c>
       <c r="I47" s="2" t="n">
-        <v>45514.98041666667</v>
+        <v>45521.32849537037</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-만족스럽지 못한 운영으로 인해 실망감을
-안겨드린 것 같아 마음이 무겁습니다.
-고객님께서 남겨주신 소중한 의견을 바탕으로
-더 많은 사람이 함께 즐길 수 있는 리니지M이
-되도록 항상 최선을 다하겠습니다.
-감사합니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K47" s="2" t="n">
-        <v>45515.63284722222</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
+        <v>45540.74896990741</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>9.10.0</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3008,58 +2865,50 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>cb6592e2-8a0d-4661-a172-3f7d2b88b97d</t>
+          <t>628bec96-135f-4081-b7f9-e6f2af2758ed</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>신대현</t>
+          <t>박승철</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIa9F-PrKC9xhL2xu75RCUAVeDpD56H4-HEtJJztAt3J31TEw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocL8oNpDT9TJw-kHfD13oJDjy53VVGfvkgncOWOAVaAXIAAClw=mo</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>인증개같음</t>
+          <t>굿겜</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1.7.85a</t>
+          <t>9.10.0</t>
         </is>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45514.89207175926</v>
+        <v>45519.99549768519</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-인증을 진행에 어려움을 느껴 리뷰를 남겨주셨네요.
-고객님께 빠른 도움을 드리고 싶으나,
-죄송스럽게도 말씀해주신 사항에 대해 상세한 확인이
-가능하지 않은 점 양해 부탁드립니다.
-번거로우시겠지만 plaync 고객지원 문의를 통해
-상세한 사항을 남겨주신다면 면밀히 확인에 도움을
-드리겠습 니다.
-고맙습니다.</t>
+          <t>안녕하세요! 리뷰를 남겨주셔서 감사합니다. 저희 커뮤니티에 가입하여 다른 Raid 플레이어와 게임에 대해 토론해보세요:
+https://discordapp.com/invite/mYKC5J6 (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K48" s="2" t="n">
-        <v>45515.63262731482</v>
+        <v>45527.8875</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1.7.85a</t>
+          <t>9.10.0</t>
         </is>
       </c>
     </row>
@@ -3069,22 +2918,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4a8aeb2c-9aed-4f43-9eec-f9b664abdf17</t>
+          <t>1db02286-5e86-4cd0-b401-c5ea8e0b90e8</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>정임상</t>
+          <t>함승태</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ9C9tjhP788D8UUulWeYBuwijFNg6Le7egy8gDanzRWp8s=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLUYbKx9R87rxF-6tHiC4hNxdtLLi34NY99Xb4_ZASm99Fhsg=mo</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>놀기충분합니다</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3095,31 +2944,23 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.10.0</t>
         </is>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45514.65832175926</v>
+        <v>45519.40717592592</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-저희 리니지M을 사랑해주셔서 감사합니다.
-항상 고객님께 즐거움과 기쁨을 안길 수 있도록
-노력하겠습니다.
-고객님의 앞 길에는 항상 행운이 가득하기를
-기원합니다.
-고맙습니다.
-</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K49" s="2" t="n">
-        <v>45514.66987268518</v>
+        <v>45527.88439814815</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.10.0</t>
         </is>
       </c>
     </row>
@@ -3129,57 +2970,43 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4b5e9d45-23fb-4d35-9440-941353d45319</t>
+          <t>e27c54ef-4445-426a-8551-cac6ae249981</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>배종표</t>
+          <t>김형태</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVii45R38opxs4PvCL1xVrJz2eB8YI1RCbhxQ3aNjxGm3F8anvA</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIQ0hBGPZ4ZB6mp8dFv90Y9PQaeWrIIFHbBX3P1uQW3sI3lsw=mo</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>휴대폰 다운로드 받아서어요리소스느려어요</t>
+          <t>정교하고 매우 완성도 높은 게임. 무엇보다 재밌다. 구성이 알차다. 챔피언과 무기,유물 레벨업에 따른 차이가 분명해 신뢰가 가는 게임. 이상.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>1.5.11a</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" s="2" t="n">
-        <v>45514.18552083334</v>
+        <v>45518.55054398148</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-소중한 리뷰 남겨주셔서 감사드립니다.
-리니지M을 플레이 해 주시는 고객님들께
-만족스러운 서비스를 제공해드릴 수 있도록
-최선을 다하겠습니다.
-감사합니다.</t>
+          <t>우리는 정말 재밌는 게임을 만들고 싶었고, 만들어서 기쁩니다. 긍정적인 피드백을 주셔서 감사합니다! 여러분의 챔피언이 아레나에서 가장 강해지길 바랍니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K50" s="2" t="n">
-        <v>45464.66719907407</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>1.5.11a</t>
-        </is>
-      </c>
+        <v>45540.71168981482</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3187,58 +3014,49 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5c90ee75-8bbd-41a7-9506-c39c1125e419</t>
+          <t>f90e584f-804b-460f-8bbb-7949ff987201</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>유영주</t>
+          <t>양성모</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJKKJbl3Cro1hjeKlQhQo7ZxtQGluQhsPV_yXr71ZozcV5k0Q=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKPNYcvnZpo4n0_RlePpl4lIWurUkkR-W_uiSfg5Zc7JKApRA=mo</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>야썩어문들어질 제작진 놈들아,오늘도 여섯번이나죽었다 이래서게임 해먹겧냐. 새로온사람들은 판단 잘해아돼요, 경험치가 오르지 않아요 경험치를 까먹거나 돈으로 경험치를복구 해야합니다 신중히선택 하서요</t>
+          <t>좋네요</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.0</t>
         </is>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45513.93957175926</v>
+        <v>45518.421875</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>리니지M REQUIEM: 안식의 서곡
-안녕하세요. 리니지M입니다.
-고객님의 소중한 리뷰를 남겨주셔서
-감사합니다.
-고객님께 바라시는 만큼 만족감을 드리지
-못한 것 같아 마음이 무겁습니다.
-고객님께서 만족스럽게 즐길 수 있는
-게임이 되기 위해 노력하는 리니지M이
-되도록 하겠습니다.
-감사합니다.</t>
+          <t>여러분이 게임을 즐기고 있다는 소식을 듣고 기쁩니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K51" s="2" t="n">
-        <v>45450.36849537037</v>
+        <v>45539.95769675926</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.0</t>
         </is>
       </c>
     </row>
@@ -3248,59 +3066,49 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>43b57a32-29ef-486b-ab84-dd491b1413f2</t>
+          <t>c81edab6-7211-4d7e-9fa1-d287a724a4b5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>김진수</t>
+          <t>유신영</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ01o1VEGtlF_dQQn9ce7v8rrK9eRDhzBChynhNskZvQQqWqw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLVJvAe9HGdmjHyobOn1QL85HtQC8H9Br4W5TN4mcPFFCWMwA=mo</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>좋아요</t>
+          <t>잼남</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45513.81505787037</v>
+        <v>45518.25578703704</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M을 즐겁게 플레이하시고
-리뷰를 남겨주셨네요.
-앞으로도 고객님께서 즐겁게 플레이
-하실 수 있도록 더욱 노력하는
-리니지M이 되겠습니다.
-궁금하신 사항이 있으실경우 언제라도
-plaync 고객지원 문의하기를 통해
-문의해 주시길 바랍니다.
-고맙습니다.</t>
+          <t>Raid를 좋아하신다는 소식을 듣고 기쁩니다. Arena에서 행운을 빌어요! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K52" s="2" t="n">
-        <v>45514.40480324074</v>
+        <v>45524.61201388889</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -3310,22 +3118,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12569f8a-c2ac-40d8-8846-8863581bc4e3</t>
+          <t>428bde3a-6c71-4ca8-922c-09530a6da2d5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>후니동</t>
+          <t>화랑</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL4_-7wDnoMzf0otBvkXIL_BP-h5-AC7EdKNpsOHXtm_GWjVQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXli-2nPEbOYizwh_keB8XPuVlCRObqW--QpHawhvY2ia0Ayog</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>이번 TJ복구권 영웅티 복구가없네요</t>
+          <t>이번에 시작한 신규유저인데 왜 닌자 프로모션 코드가 사용이 안되죠? 신규유저만 사용가능한코드라뜨는데 저는 이번에 처음 깔고 처음 시작한건데 사용이 안되네요</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -3336,33 +3144,23 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1.4.31a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45513.79802083333</v>
+        <v>45517.5975925926</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-해당 현상으로 불편함을 끼쳐드려 죄송합니다.
-말씀해주신 리뷰 내용만으로는 리뷰를
-통해 정확한 확인이 어려우므로 양해를
-부탁드립니다.
-지속적으로 동일한 현상이 발생하신다면
-번거로우시더라도plaync 고객지원 문의하기를
-통해 접수해주시면 고객님께 필요한 도움을
-드릴 수 있도록 최선을 다하겠습니다.
-고맙습니다.</t>
+          <t>기기에서 게임을 처음 설치했을 때만 보상을 받을 수 있습니다. 이전에 이 기기에 게임을 설치한 후 삭제하고 다시 설치한 경우 보상을 받을 수 없습니다. 모든 조건을 충족했지만 보상을 받지 못한 경우 지원팀 raid.support@plarium.com에 문의하세요. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K53" s="2" t="n">
-        <v>45514.40526620371</v>
+        <v>45518.58043981482</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1.4.31a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -3372,37 +3170,51 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>cb6f0dec-3859-4cb4-975b-f1dc281e830b</t>
+          <t>6bbbac59-f034-4e8c-925c-9d9b42729890</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>감귤</t>
+          <t>김학준</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU6owaz08Vf87CgFDTVrqOWpjpXm2v6w9vHFSqL32pcvLpPDig</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIlI2cpc0cbeCIgMz2PP9K3ehmBHVkYaSqMeNy_V8tSNyYQCw=mo</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>절대하시면 안됩니다 대기열때문에 2-3시간 기다렸는데 비정상적인 요청이라며 저혼자 튕기고 다시 2-3시간 대기열 뜹니다 절대하지 마세요 Nc소프트는 무조건 망해야되는 회사입니다 유저를 기만하고 희롱하고 단순히 자기네 돈벌이수단으로만 악용하는 악질회사입니다 무조건 망해야됩니다 앞에선 안하겠습니다 하고 뒤에선 기존보다 더 심하게 유저들 등골 뽑아먹는 존재해서는 안되는 악질 반동회사입니다 차라리 양산형 중국게임하세요 중국게임보다 더 악질 Nc소프트입니다 니네 회사 망하는날 전국민이 광화문광장으로 나가서 만세삼창 할꺼다</t>
+          <t>gooood</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
       <c r="I54" s="2" t="n">
-        <v>45513.59634259259</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+        <v>45517.54848379629</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Hey! Thank you for the high rating!</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>45527.84670138889</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3410,50 +3222,49 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>b76306b3-0cf4-47b9-8a17-41cc851c17b3</t>
+          <t>b09e4339-8afc-4cf1-a48b-92572e4f61ea</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>류영범</t>
+          <t>오태식</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLULvG-KtlPiFFutHDiDGLkxiFez58dRZXV8nol18v629_GCw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIGmorqbx4Uift-gXtYAHhKj2PKxMvQVjpZwLGoiSjkR_xjiQ=mo</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>뇌신 케릭터 스킬 디크리즈 웨이트 스킬이 활성화가 되지 않아 문의 드려 봅니다 이 스킬이 뇌신만 그런건지 딴 케릭도 그런지 확인 조치 부탁드립니다 아 스킬 습득한것은 왜 재구입이 안되는지도 궁금하구요</t>
+          <t>ㄴㄱ딛ㄱㄷㅅㅈ느ㅡㄹ</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.0</t>
         </is>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45513.34693287037</v>
+        <v>45517.51616898148</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>안녕하세요. 류영범님! 원활한 게임 진행이 가능하지 않아 속상하셨겠습니다. ㅠㅠ 고객님께서 기재해주신 현상에 대해 확인할 수 있도록 하겠습니다. 다만, 확인 및 조치에까지 다소 시간이 지연되는 점, 고객님의 너그러운 마음으로 양해해주시길 부탁드립니다. 빠른 시일 내에 정상화 소식과 함께 고객님을 찾아뵐 수 있도록 최선을 다하겠습니다. 게임 이용에 불편을 드린 점, 재차 사과드리며 또한 원활한 운영을 위해 노력하겠습니다. (_ _
-감사합니다.</t>
+          <t>게임을 즐기고 있다는 소식을 듣고 기쁩니다! 게임을 더욱 개선하기 위해 노력하고 있습니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K55" s="2" t="n">
-        <v>42944.19090277778</v>
+        <v>45539.95673611111</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.0</t>
         </is>
       </c>
     </row>
@@ -3463,22 +3274,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>aa4d024e-b70b-4657-a11a-03d5ff8a4726</t>
+          <t>67068cc4-37d2-4b58-9d0e-f4f30bdfbb77</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>조광훈</t>
+          <t>yongtack jung</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJE5lecgJkPPJp0ytA0f5VZck9RpUTGH9W4H429TW2uS0WF=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIUUr5hhVdPskPNjrCIe7c4TeN5qhJuRDfxWXazT3s9QA79aA=mo</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>굿</t>
+          <t>스트레스 없이 천천히 키우면서 즐길수 있어서 좋아요^^</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3489,32 +3300,23 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45512.95274305555</v>
+        <v>45517.06853009259</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-힘이 되는 소중한 리뷰 감사드립니다.
-고객님의 기대에 충족 할 수 있도록
-노력하는 리니지M이 되도록
-최선을 하겠습니다.
-궁금하신 사항이 있으실경우 언제라도
-plaync 고객지원 문의하기를 통해
-문의해 주시길 바랍니다.
-고맙습니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K56" s="2" t="n">
-        <v>45513.64072916667</v>
+        <v>45527.84381944445</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -3524,56 +3326,49 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>b74d8403-a81f-43a6-99f1-5f4216c96a76</t>
+          <t>97f51854-afa4-4b33-ae64-bdb1855d2c8a</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>잘살아보세</t>
+          <t>박삼근</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIY--SuxuAZFvTmjiMg8-k_kbiMs16pQ-E3WSt33fFNOxSutA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVMQntkR6LkANSxKs5-9ALCR8FETUhbxM8JMthf84DkjRULDmJ9</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>카지노보다 사행성 100배 더 심한게임, 인생 조지는건 순식간</t>
+          <t>재미있는</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45512.93340277778</v>
+        <v>45516.91302083333</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M입니다.
-고객님께 충분한 재미를 드리지 못한 것 같아
-너무나도 마음이 무겁습니다.
-남겨주신 소중한 리뷰를 통해 보다 더
-개선된 서비스와 즐거움을 드릴 수 있도록
-최선을 다하는 리니지M이 되겠습니다.
-고맙습니다.</t>
+          <t>우리는 정말 재밌는 게임을 만들고 싶었고, 만들어서 기쁩니다. 긍정적인 피드백을 주셔서 감사합니다! 여러분의 챔피언이 아레나에서 가장 강해지길 바랍니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K57" s="2" t="n">
-        <v>45513.64101851852</v>
+        <v>45539.95613425926</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -3583,22 +3378,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>99ebcc3c-6ca6-436c-8b88-b319e5aaffd0</t>
+          <t>90fe1ce9-6f1a-43b1-aa74-8b680c41953b</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>임정태</t>
+          <t>조수현</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVhi6-_muEHw2LnFCSP_poQ483fyAQyaoteGkyIkDhC3teNqbzD</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLIw6aRvU_BLWNIhLWG9j3-aoOZXrOUwQv8GGKubnf9gEvB-A=mo</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>이런게임이 없어요~~ 아재들에겐 최고조~</t>
+          <t>정 말잼있는 겜이네요</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3607,29 +3402,27 @@
       <c r="G58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
       <c r="I58" s="2" t="n">
-        <v>45512.86652777778</v>
+        <v>45516.68784722222</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-즐거운 마음으로 리뷰를 달아주셨네요.
-고객님께서 칭찬을 해주신 만큼 더욱 더 개선해
-나가며 늘 새로운 이벤트를 준비하고 있으니
-앞으로도 많은 기대바랍니다.
-게임 이용 중 궁금하시거나, 다른 의견이
-있으실 경우 plaync 고객지원 문의하기를
-통해 남겨주시면, 확인 후 빠르게 도움을
-드리겠습니다.
-감사합니다.</t>
+          <t>긍정적인 피드백 감사합니다! Teleria에서 여러분의 소식을 듣기를 바랍니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K58" s="2" t="n">
-        <v>45513.64061342592</v>
-      </c>
-      <c r="L58" t="inlineStr"/>
+        <v>45537.94116898148</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3637,37 +3430,52 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>59c0af6c-64a5-4ebd-bc0e-50d67e46b186</t>
+          <t>1f54573c-d27a-4fb2-80d8-720e41a045b8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>최기철</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX1caQJZ2-DQQZM8cImlSE9muyEhk6t1ypujKJDglNhk7ctz7Zl</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLB4DWNSV03l3CGGAguYx-QXBTZUSurUwyGPzrTvBGI8hit9w=mo</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>도박 입니다. 신고번호는?</t>
+          <t>같이해요 재미난겜</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
-      </c>
-      <c r="H59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
       <c r="I59" s="2" t="n">
-        <v>45512.65922453703</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+        <v>45516.53552083333</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>안녕하세요!
+게임을 좋아하셔서 기쁩니다. 저희 포럼에 가입하여 다른 Raid 플레이어와 게임에 대해 토론해 보세요: http://bit.ly/raid_forum (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>45527.83945601852</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3675,57 +3483,49 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>d4d7a1e9-9a4e-4dfd-ba9a-2b5dbfb70198</t>
+          <t>0948ca12-e787-4220-b608-ea7a13d5d77e</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>온실장</t>
+          <t>박원휘</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL7PFfCnaOjLmXf8TYOTWW620kx1lQTviDBCTcLPbkRl2DnKw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI5TT9gGo3Nz19jbN_2WZWiYNsZic_EfNVTBPgC_qhQlgLL8w=mo</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>항시 이용하고있는 게임입니다 그랙픽에서는 전세계1위인거같아요 관리자분께서 고객의마음 귀를 기울여주셨으면좋겠습니다 확기적인 쿠폰을 기대하며 많은 응원 기대합니다</t>
+          <t>잼나요</t>
         </is>
       </c>
       <c r="F60" t="n">
         <v>5</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I60" s="2" t="n">
-        <v>45512.40773148148</v>
+        <v>45516.50024305555</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M을 즐겁게 플레이 해주시고 긍정적인
-리뷰를 남겨주셔서 저 또한 매우 감사하고
-뿌듯한 마음입니다.
-앞으로도 즐겁고 만족스러운 리니지M이
-되기 위해 힘쓰겠습니다.
-고맙습니다.
-</t>
+          <t>여러분이 게임을 즐기고 있다는 소식을 듣고 기쁩니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K60" s="2" t="n">
-        <v>45512.45116898148</v>
+        <v>45527.839375</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -3735,56 +3535,50 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>d27f021a-3016-406e-8e83-db4f14702fe7</t>
+          <t>587acf38-f9ef-4f30-8adf-75b1fcf6d8f7</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jen Duti</t>
+          <t>JOSHUA GABRIEL CHO STAR male</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVxQXONOqljebZj9rm09CDzhqVSmaLRKIky9_TTAyaGACG1KjQv</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWbGaPPh8cYXyjGtYT9wKrW1Kx5UiVluZ5ZLi1AmrQcm7PKtRDyJQ</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>오늘총 200 만원가량 뽑기를 했다. 영변 조차 한개 안나오고. 진행중이다.지금이라도 늦지 않았다 개 돼지 탈출하자.확률 개같음주의</t>
+          <t>잼나요</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I61" s="2" t="n">
-        <v>45512.08456018518</v>
+        <v>45515.68796296296</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님이 원하는 만큼 기대에 충족하지 못해
-마음이 몹시 무겁습니다.
-즐거운 컨텐츠를 제공할 수 있도록 노력하고
-발전하는 리니지M이 되겠습니다.
-감사합니다.
-</t>
+          <t>안녕하세요! 리뷰를 남겨주셔서 감사합니다. 저희 커뮤니티에 가입하여 다른 Raid 플레이어와 게임에 대해 토론해보세요:
+https://discordapp.com/invite/mYKC5J6 (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K61" s="2" t="n">
-        <v>45512.45599537037</v>
+        <v>45525.82689814815</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -3794,51 +3588,51 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>014d3d27-2473-4328-bea0-d62efad3f3fc</t>
+          <t>1197ab76-eb71-43bc-b53e-c9fb647e0aaa</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>이정훈</t>
+          <t>피파모바일</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocItwBoWZtFmzlPmAIFYdT1RXUm1Vr2Jy7KBcffTAONRfoyjeA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLhBEx_iFkK_r1dWK02KenGIYmOZMsGVr9CTKFiyHgb4LJyJA=mo</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>이게 게임이야? 이게 게임이냐고 이게 어떻게 게임이야? 엔씨주가 앞으로 전망이 우울하던데 게임을 만들어야지 에휴</t>
+          <t>와 이게임 중독성 미쳤음</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
-      </c>
-      <c r="H62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
       <c r="I62" s="2" t="n">
-        <v>45512.07599537037</v>
+        <v>45515.49751157407</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-기대에 다하지 못한 것 같아서 마음이 무거우며,
-바램에 다할 수 있도록 항상 최선을 다하겠습니다.
-혹시라도 고객님께서 게임 이용 도중에 도움이
-필요하시거나 개선해야 할 부분이 있다면
-Plaync 고객지원을 통해 문의 부탁 드리겠습니다.
-감사합니다.
-</t>
+          <t>친절한 말씀 감사합니다! 저희 게임을 좋아해주셔서 기쁩니다. Arena에서 행운을 빕니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K62" s="2" t="n">
-        <v>45512.45280092592</v>
-      </c>
-      <c r="L62" t="inlineStr"/>
+        <v>45525.82498842593</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3846,22 +3640,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>614f4ed6-c431-4853-8ada-c444ac9b16d8</t>
+          <t>9d1458a7-283e-4d02-b090-4678efb8200d</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Yon윤성민</t>
+          <t>이병화</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX1Ds_9ZjLVb4qelWcE-kweGvcbeJJwzu-4J9BxbVlLmocQJgEY</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJxdnswFf86kAAN9crC7phskpAWPYvnLqlEC9SVZqS_uSO14w=mo</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>현질이문제입니까 타격감이좋죠 돈안쓰고 게임을할수있나 문제는 컴터리니지처럼 현거래가안된다는점 ㅋㅋ 다이아로하니까요 컴터는 아데나로거레되니까 돈버는것도가능.전신성검사 소과금으르열심이하는중입니다</t>
+          <t>돈많이들어요..</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3872,30 +3666,23 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I63" s="2" t="n">
-        <v>45511.8168287037</v>
+        <v>45515.38337962963</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께 즐거움을 안겨드린 것 같아서
-몹시 기쁩니다.
-다음에도 고객님의 만족감에 충족할 수 있도록
-열심히 발전하는 리니지M이 되도록 노력하겠습니다.
-고맙습니다.
-</t>
+          <t>안녕하세요! 우리는 모든 플레이어가 투자 없이도 진행할 수 있도록 게임 내 활동에 대한 무료 아이템과 보상을 계속 추가하고 있습니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K63" s="2" t="n">
-        <v>45512.45163194444</v>
+        <v>45525.82251157407</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -3905,51 +3692,45 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>b05bd3fb-67f3-44df-bb44-5baf6727b227</t>
+          <t>b0fe714d-6341-4bd0-8a52-6c2e50ff1cd4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>김정욱</t>
+          <t>강무진</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJaiHl26gunPtEhPSm1VGLayZOmMuLLQa3t6sF2ek630vsuvg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKHwH4al0EgMfXYbqT6lgljhGXx5VqGf4sTdL_QqCcs4VA4eA=mo</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>쓰레기겜</t>
+          <t>재비슴!</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
       <c r="I64" s="2" t="n">
-        <v>45511.30243055556</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-기대하신 만큼의 만족감을 드리지 못해 마음이
-무겁습니다.
-게임 운영에 보다 더 신경쓰도록 하며 개선된
-모습으로 보답해 드릴 수 있도록 항상 노력하는
-리니지M이 되겠습니다.
-고맙습니다.
-</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="n">
-        <v>45511.43414351852</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
+        <v>45515.19993055556</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3957,22 +3738,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4ad2b354-3636-4bb5-b8a5-3f6042fb7a46</t>
+          <t>dc50c955-7003-49f8-915d-7dee52bf762f</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Zhiming Li</t>
+          <t>남아로</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIsVoulKYuosF8iwHeZ85ZVfjbTJpZbnTrNVh7l2QXW3qSZGg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocL6AW9C3WQxv5hkiugGRJSUngci47HdU9bTe9nXFr8X4ype2Q=mo</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>굿굿굿</t>
+          <t>생각보다 잼있음</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3983,29 +3764,23 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I65" s="2" t="n">
-        <v>45511.2685300926</v>
+        <v>45515.06769675926</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께 즐거움을 안겨드린 것 같아서 몹시 기쁩니다.
-고객님이 앞으로도 게임 플레이를 즐길 수 있도록
-매사에 최선을 다하는 리니지M이 될 것을
-약속하겠습니다.
-고맙습니다.</t>
+          <t>우리는 정말 재밌는 게임을 만들고 싶었고, 만들어서 기쁩니다. 긍정적인 피드백을 주셔서 감사합니다! 여러분의 챔피언이 아레나에서 가장 강해지길 바랍니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K65" s="2" t="n">
-        <v>45511.43469907407</v>
+        <v>45525.81581018519</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -4015,51 +3790,51 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bf75955f-67a5-4677-a845-b547368b0154</t>
+          <t>eebb546c-612c-40ed-93b3-2100ef80c7a6</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>박천용</t>
+          <t>최병호</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKPrgoknn69u4mHQmeyPfV05RkbKt9oY_dQzdCv5-XhtFxSsg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKDFpYq1o_o_85C-xN3CHS1gpXYu3f3BufzlVRplc86BM-Ezg=mo</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>몇 천은 우습게 나가는 겜!</t>
+          <t>킹왕짱</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
       <c r="I66" s="2" t="n">
-        <v>45510.94451388889</v>
+        <v>45514.36373842593</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-게임 만족을 위해서 항상 노력하지만
-고객님께서 기대에 미치지 못하는 것
-같아서 아쉬운 마음이 앞섭니다.
-아쉽고 흡족하지 못했던 사항들을 개선하고
-한층 더 노력 해서 원활한 서비스를 제공해
-드릴 수 있는 리니지M으로 거듭나겠습니다.
-감사합니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K66" s="2" t="n">
-        <v>45511.43372685185</v>
-      </c>
-      <c r="L66" t="inlineStr"/>
+        <v>45539.95284722222</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4067,55 +3842,49 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>f7af5c28-e1e4-44ca-b399-0c227baf3917</t>
+          <t>dfdec8fc-7ba3-47ec-851b-f1b3387b839d</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>워누니</t>
+          <t>Phuong thuy Nguyen</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUwNqKD55kaQCdRlIfiNhqt5KsgpUckEO1EQdb_iK2PikV7ULM</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJpGe6Cft-2OEZUgjEmPJmuEtd4iecurNQdgX-H50Pvh2P_ow=mo</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ㅂ50겜</t>
+          <t>와우</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I67" s="2" t="n">
-        <v>45510.66228009259</v>
+        <v>45514.21255787037</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님이 원하는 만큼 기대에 충족하지 못해
-마음이 몹시 무겁습니다.
-즐거운 컨텐츠를 제공할 수 있도록 노력하고
-발전하는 리니지M이 되겠습니다.
-감사합니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K67" s="2" t="n">
-        <v>45511.43320601852</v>
+        <v>45537.93709490741</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -4125,54 +3894,49 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>97e4a9ee-71db-4288-833f-40980ad54ee5</t>
+          <t>ffd5d0c6-a04d-4fe8-a88b-2cc4ec9508ba</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>김근희</t>
+          <t>신신덕수</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLYuX5_-wr8ZnFappS4xHwYphNHiJwJhdY7TnYKJ3n3Uh5nnA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocL8GByNTgfqxu_DXK-K-eseH0FVg-QIqlx5dpjGAXAUmZOpkQ=mo</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>각인 상자 증발했어요 ?</t>
+          <t>감사합니담</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I68" s="2" t="n">
-        <v>45510.59136574074</v>
+        <v>45512.54458333334</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-해당 아이템이 소실되어 리뷰를 남겨주셨네요.
-이용에 불편을 드려 죄송하나, 고객님의 정보를 확인할 수 없는 리뷰로는 정확한 원인을 찾기에는 어려움이 있습니다.
-번거로우시더라도 plaync 고객지원 문의하기를 통해 접수해 주시면 고객님께 필요한 도움을 드릴 수 있도록 노력하겠습니다.
-감사합니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K68" s="2" t="n">
-        <v>45510.66797453703</v>
+        <v>45524.74736111111</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -4182,43 +3946,50 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2b97a9cd-f270-463f-9385-a93eb78b7171</t>
+          <t>6ab1c9c9-4df0-462d-b536-d2fb859c93e5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>주준헌</t>
+          <t>Dongjung Kim</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJBoGZcUVmGmuIYSM2Dlyd16r9QvyUtkddG06wKaJ6YgF7-TA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKJhCfayVMoRGSydq2Os5MyViY54UCM2h2FLUbaHfi3GgiaaU8=mo</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>김택진 김범수. 잡아서 국정감사. 해주세요. 민주당 위원 님들들. 저들은. 칼없는 살인자들입니다. 제발 부탁드립니다</t>
+          <t>속도세트 구매했는데 아이템이 안들어왔어요ㅜ 내 46불</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I69" s="2" t="n">
-        <v>45510.58684027778</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>45512.53530092593</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>안녕하세요! 받은 편지함을 확인해 주세요. 구매한 모든 아이템은 귀하가 청구할 때까지 그곳에서 사용할 수 있습니다.
+아이템을 찾을 수 없는 경우 raid.support@plarium.com으로 지원팀에 문의하거나 게임을 통해 문의하세요. 아바타를 탭하고 &gt; 정보 탭 &gt; 지원을 선택하세요. 최선을 다해 도와드리겠습니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>45513.80164351852</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -4228,22 +3999,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>177eb591-cc0f-48ca-bfe3-fd56baa539a8</t>
+          <t>f18ec034-25f9-47b1-af64-8379ed70976d</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>장명진</t>
+          <t>myangel혜성</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ_umPedjAG7y8sLLVCgb75T5kjIzaPF5j5oKp54NpynRH2VQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjViBixOHi2kxUBcY7ZZjDL3DZBckR0davZBe5_5I-dCOuxqOKY</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>친구가 하고 있는거 보고 같이하려는데 생성제한이라 못하는데 신규들은 제한 없이 생성하게 해주시면 안되나요?ㅠ</t>
+          <t>해보니까 재미있어요</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -4252,32 +4023,27 @@
       <c r="G70" t="n">
         <v>0</v>
       </c>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
       <c r="I70" s="2" t="n">
-        <v>45510.44438657408</v>
+        <v>45512.29414351852</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-캐릭터 생성 제한으로 인해 즉시 게임 이용이
-가능하지 않으시어 많이 답답하셨을 텐데요.
-캐릭터 생성의 경우 서버 상황에 따라 유동적으로
-변경되기에 정확한 일정에 대한 안내가 가능하지
-않은 점 부디 너른 마음으로 이해해주시길 바랍니다.
-답답하신 마음에 리뷰를 접수해주신 만큼 생성 제한
-서버의 캐릭터 생성 제한 해제에 대해 유관 부서로
-전달하겠습니다.
-혹여 궁금하신 사항이나 기타 문의 사항이 있으시다면
-언제든지 plaync 고객센터에 문의하기를 접수해 주시길
-바랍니다.
-감사합니다.</t>
+          <t>감사합니다! 저희는 게임을 만드는 데 많은 노력을 기울였습니다. 여러분이 게임을 좋아하신다는 사실을 알게 되어 기쁩니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K70" s="2" t="n">
-        <v>45510.49334490741</v>
-      </c>
-      <c r="L70" t="inlineStr"/>
+        <v>45524.74703703704</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4285,54 +4051,49 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>695c4ddc-cbb8-425e-8427-9d7977e5024c</t>
+          <t>6becf479-2e3e-4223-afa2-28438ded46f4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Kim해피민</t>
+          <t>조성진</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWhocz_pPL2FZ2d2CKU54qyZ3YNnExGj4IZ6J0pGZU1AgRAinah</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIpq-F8eyikD6RFjYvk3w-fBAHrO9OIAxNLAgaRXYJCPaOxaw=mo</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>차라리 포커나슬롯게임하세요 그거하면 돈이나따지 이건 그냥 버리는거임 확률도 최악인대다가현질로 돌아가는게임인대 남는것도없음 도박게임보다 더악독한게임은 리니지가 최강인듯</t>
+          <t>시작은 괜찮은듯</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I71" s="2" t="n">
-        <v>45508.56228009259</v>
+        <v>45512.1918287037</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님 한 분 한 분의 만족스러운 게임 플레이를 위해 노력을 기울이고 있지만 고객님의 기대에 저희가 부응하지 못한 것 같아 아쉬운 마음입니다.
-남겨주신 의견을 참고하여 즐거움만 가득한 리니지M가 되도록 노력하겠습니다.
-감사합니다.
-</t>
+          <t>여러분이 게임을 즐기고 있다는 소식을 듣고 기쁩니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K71" s="2" t="n">
-        <v>45508.68087962963</v>
+        <v>45527.82373842593</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -4342,59 +4103,49 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9350c037-a880-4803-8837-c18da8af6410</t>
+          <t>edf56a6d-27be-4503-8059-111326541d21</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>승덕꿍</t>
+          <t>최진석</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIzx-3uhRgUAewY4Xz4pcxyFrhyeIoY190ss2NAKL34JAIIoQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU_2EzEqlTPx3wcYn5bI1yx6IJVTVIe1be0tZLFRZ0PWUm961Oe</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>이번 업데이트 이후로 게임이 먹통이네요 갤럭시 a8 star 입니다</t>
+          <t>현질 없인 힘듬</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I72" s="2" t="n">
-        <v>45506.9952662037</v>
+        <v>45511.30429398148</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-원활한 게임 진행이 되지 않아 많이
-답답하셨겠습니다.
-빠른 도움을 드리고 싶지만, 죄송하게도
-리뷰 답변으로는 상세한 도움을 드리기
-어려우니 번거로우시겠지만 해당 현상을
-확인할 수 있는 스크린샷을 첨부하시어
-plaync 고객지원으로 문의 접수 부탁
-드리겠습니다.
-감사합니다.</t>
+          <t>챔피언을 업그레이드하면 강력한 보스를 물리치기가 더 쉬워집니다. 더 많은 팁을 보려면 포럼을 방문하세요: https://plarium.com/forum/en/raid-shadow-legends/ (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K72" s="2" t="n">
-        <v>45507.36383101852</v>
+        <v>45513.77841435185</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -4404,37 +4155,52 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>fcfe26fc-cd82-455c-9d9b-c51190899868</t>
+          <t>870b81b9-10e4-4a18-92d5-91e0acfb9b64</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Rover Activist</t>
+          <t>박용</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVZtFbyckAfR4J2fnJXMQ-muib5da5RavrjOttVZZhpGy-8eNg</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKTVz_a_-1MuqX5jpF__m93EF3ctj1jxK-KUaTrJs4d9-_69Q=mo</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>개고기 탕후루</t>
+          <t>어짜피 게임회사에서 돈 벌기 위해 확률 낮은건 진짜 이해한다 이십만원 삼십만원 1년간 투자한게 아까워 게임 하지만 진짜 장비업그레이드 확률 어떻게 해줘라 진짜 짜증나서 못하겠다</t>
         </is>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
-      </c>
-      <c r="H73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>7.70.6</t>
+        </is>
+      </c>
       <c r="I73" s="2" t="n">
-        <v>45506.86854166666</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+        <v>45509.2987037037</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>안녕하세요!
+유물을 업그레이드하려면 인내심과 실버가 필요합니다. 하지만 한 번만 하면 오랫동안 고급 장비를 활용할 수 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="n">
+        <v>45511.601875</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>7.70.6</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4442,58 +4208,49 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bea6d105-2242-4451-9bc3-594ad3719c55</t>
+          <t>f2c77e6c-9af4-4633-8a33-c5d5c562f353</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>진원주</t>
+          <t>minsu park</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWEiizLY8AicMttKOs0JZzevgDrUe4BMlJgjwQY6Dx8wGApYW6p</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKURfS3oOKM0jfFEVz98I6Rj1BY3yFrXgGBlQfRxZeko_dBeA=mo</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>왜 갑자기 오류라면서 로그인이 안됨? 월보타임인데 안들어가져서 월보도 못하는구만.. 뭐 맨날 에러임?</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I74" s="2" t="n">
-        <v>45506.50215277778</v>
+        <v>45508.89743055555</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-해당 현상으로 불편함을 끼쳐드려 죄송합니다.
-말씀해주신 리뷰 내용만으로는 리뷰를 통해 정확한
-확인이 어려우므로 양해를 부탁드립니다.
-지속적으로 동일한 현상이 발생하신다면
-번거로우시더라도 plaync 고객지원 문의하기를
-통해 접수해주시면 고객님께 필요한 도움을
-드릴 수 있도록 최선을 다하겠습니다.
-고맙습니다.</t>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K74" s="2" t="n">
-        <v>45506.6055324074</v>
+        <v>45524.72902777778</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -4503,43 +4260,49 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>774e88e8-a1b7-44df-b132-2a7e813bf913</t>
+          <t>ef8c7377-f167-4d04-a5e8-9262af9e47a3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>이현</t>
+          <t>심의성</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXfsL1RD9LmK7ANj8B5opQ0-L8esx-EVhPvKoPRXLAULuQuOtE</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJxrA1bJHDseyinOtN01GhckGk505kGh0J_R-yfE53uaxFyFg=mo</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>이 me친 sekki들은 주식이 10창나도 답변 성의가 10창렬이네 너넨 진짜 망해도 싸다</t>
+          <t>그냥저냥</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1.8.17a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I75" s="2" t="n">
-        <v>45506.06545138889</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>45507.59399305555</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>게임을 좋아해주셔서 기쁩니다. 더욱 개선하기 위해 최선을 다하겠습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>45525.7866087963</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>1.8.17a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -4549,43 +4312,49 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8537e728-1172-405b-a673-1cc875a0a2c0</t>
+          <t>fc75cc5e-b07e-465a-a1c3-00025b9b45cf</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>조덕준</t>
+          <t>임상근</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLw5_5QwcF4Mdji7aTAT6Qryoo17G1RcgemVKLKd4myURdnwA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIy25-urBfEdMmm6jlSO9yNcs4BdiTKcEP2xO6MpiUoBbgvMg=mo</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>넵 드다 ㆍ</t>
+          <t>양산형끝판왕 무과금분들은 빨리후퇴하시오</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>9.00.0</t>
         </is>
       </c>
       <c r="I76" s="2" t="n">
-        <v>45505.95859953704</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>45507.18655092592</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>안녕! 시간을 내어 게임에 대한 의견을 공유해 주셔서 감사합니다. 귀하의 피드백은 우리에게 정말 소중합니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>45508.79846064815</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>9.00.0</t>
         </is>
       </c>
     </row>
@@ -4595,59 +4364,49 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>19a540d7-b759-402f-82a4-5789608a3ce2</t>
+          <t>0f99569c-870b-4e5d-b488-8e31ca9fe87d</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>행동방경</t>
+          <t>윤수이</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIAqCuJKQwpIgkPIZoDKYwiiKAVtcjSYRpl_keeD5g9eHHFXQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIpCo4QJfNhRbjhSltzhazYRbj270jjGz5a1raDbkhuC7PdgA=mo</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>한달 게임 후기 이건 최악이다. 렙 66 게임 시간 한달 게임 플레이 낮에 8시간 자동 퇴근 후 절전 모드 익월 아침 출근 전 까지 매일 게임 플레이 한달 동안 희귀아이템 구경도 못 함 희귀 제작 비법 구경도 못 함 고급템 4개 먹음 이게 끝 어느 플레이어는 희귀템만 하루 기본 5개 이상씩 희귀비법도 5개씩 먹음 황당함 할 말이었다. 뭔가 투자 하게끔 해줘야 투자를 하든 현질을 하든 하지 접을 려고 함</t>
+          <t>닌자 이벤트 안되길래 문의했는데 잠수</t>
         </is>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.0</t>
         </is>
       </c>
       <c r="I77" s="2" t="n">
-        <v>45505.73234953704</v>
+        <v>45507.07918981482</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-충분한 재미를 드리지 못한 것 같아
-너무나도 마음이 무겁습니다.
-남겨주신 소중한 리뷰를 통해 보다 더
-개선된 서비스와 즐거움을 드릴 수 있도록
-최선을 다하는 리니지M 되겠습니다.
-궁금하신 사항이나 건의사항이 있으실 경우
-언제라도 plaync 고객지원 문의하기를 통해
-문의해 주시길 바랍니다.
-고맙습니다.</t>
+          <t>기기에 처음으로 게임을 설치한 경우에만 보상을 받을 수 있습니다. 이전에 이 기기에 게임을 설치했다가 삭제하고 다시 설치한 경우 보상을 받을 수 없습니다. 모든 조건을 충족했지만 보상을 받지 못한 경우 지원팀 raid.support@plarium으로 문의하세요. com (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K77" s="2" t="n">
-        <v>45506.40111111111</v>
+        <v>45508.79625</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>9.00.0</t>
         </is>
       </c>
     </row>
@@ -4657,50 +4416,51 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9009790a-9e37-4907-a3cb-ae652b16b9d2</t>
+          <t>35433896-c941-4450-b983-e29f9106e1fe</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>킴오크씨</t>
+          <t>최영학</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUaDi_MW_rRlwsCYUsUpq_fdiQScMqPQ_ZIM9AGrFcNlMe2H0Tr</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLRbBrnjiOXCjyBvVwY5Qp1fM930Ltj8_igzFJkGR5cjGbs4Q=mo</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>쓰레기 과금게임 한국 게임업계를 망친주범</t>
+          <t>근데 아쉽</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
-      </c>
-      <c r="H78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
       <c r="I78" s="2" t="n">
-        <v>45505.08677083333</v>
+        <v>45506.57797453704</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M입니다.
-고객님께 충분한 재미를 드리지 못한 것 같아
-너무나도 마음이 무겁습니다.
-남겨주신 소중한 리뷰를 통해 보다 더
-개선된 서비스와 즐거움을 드릴 수 있도록
-최선을 다하는 리니지M이 되겠습니다.
-고맙습니다.</t>
+          <t>감사합니다! 귀하의 의견은 게임을 개선하는 데 도움이 됩니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K78" s="2" t="n">
-        <v>45505.40456018518</v>
-      </c>
-      <c r="L78" t="inlineStr"/>
+        <v>45519.83733796296</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4708,53 +4468,49 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>fa1d9c3d-1ed7-4ce9-bea7-64abff34f11c</t>
+          <t>0ff49ec3-c8b9-44c6-972b-e7f06d0aa3df</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>김용기</t>
+          <t>이명환</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL_NVUZuYWjD8zdvo4Lt0k3wJWPSkeLdtrYq1xfmY-y8EwNpQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUmxO6NI3OTSXrXI-UzdhtY3OZeFJxKSlMyAqpeuOo1GrO7I3tY</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>전변,전인 각성하게해주세요...</t>
+          <t>심심할때 무과금으로 욕심없이 하면 좋을 듯 합니다.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>9.00.2</t>
         </is>
       </c>
       <c r="I79" s="2" t="n">
-        <v>45505.05971064815</v>
+        <v>45506.54603009259</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>TRIGGER : 진혼의 방아쇠
-안녕하세요. 리니지M입니다.
-리니지M을 사랑해 주시는 고객님께 더 큰 미소를
-안겨드릴 수 있도록 언제나 노력하겠습니다.
-감사합니다.</t>
+          <t>안녕! 시간을 내어 게임에 대한 의견을 공유해 주셔서 감사합니다. 귀하의 피드백은 우리에게 정말 소중합니다. (via GoogleTranslate)</t>
         </is>
       </c>
       <c r="K79" s="2" t="n">
-        <v>44754.59334490741</v>
+        <v>45509.57648148148</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>9.00.2</t>
         </is>
       </c>
     </row>
@@ -4764,58 +4520,4186 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>19a69a45-80ad-415a-b7b8-4cb41e48fe64</t>
+          <t>123cceab-924e-4c1f-a806-5cb0e1899402</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>최광일</t>
+          <t>Tae ok Han</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ8rPLYCB5LV1ZOYbwHEplHjRi7f4LUkXCtuf0UfEOmiwJLDQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUieIi-Wt4KSBqp3UzuWBEqqDXOt63v2E0QkcAiCVs7LXBR5HDX</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>지금 리니지m게임 화면 접속 하면 검은 화면만 뜨고 안됨니다</t>
+          <t>잘 만든 게임. 일일퀘스트나 미션이 정교하게 짜여져서 다음판을 깨려면 어떡해서든 유닛파워를 올려야한다. 각 던전이나 성마다 필요한 장비가 있어서 필요한 곳에서 전투를 해야하고 하면서 조금씩 강해지면서 못깬 판을 깨는 즐거움이 있네. 광고도 없고 보상도 매일 꽤 준다.</t>
         </is>
       </c>
       <c r="F80" t="n">
         <v>5</v>
       </c>
       <c r="G80" t="n">
+        <v>22</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>45506.51314814815</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>최종 챔피언의 전투 통계 - 유물, 마스터리, 그레이트 홀 등. 하지만 이 특성은 챔피언의 효율성을 보장하지는 않습니다. 친화도와 스킬 및 유물의 유형은 사용하는 위치에 따라 챔피언의 성공을 결정하는 데 더 큰 역할을 합니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>45525.78229166667</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1b9402b8-aed6-4bb6-a0ce-bf95715e73c2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>김희선</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIE8xWtwYAm1OMGxwT35Qh9Zw6qaKM1twmQ0fHfPRi8GKOdUQ=mo</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>뭐처럼하네요</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>5</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>45506.454375</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>높은 평가를 주셔서 정말 감사합니다! 게임을 좋아하셔서 기쁩니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>45524.68612268518</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ddeef9c6-3f04-4e64-84d2-e7ab6790c7fe</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>김성천</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXTm6Z3QzZf0rfxaiIu9nESubeQD-eYn-txfNxln4tb-lMZZkfx</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>재미있어요</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>45506.41986111111</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>안녕하세요! 리뷰를 남겨주셔서 감사합니다. 저희 커뮤니티에 가입하여 다른 Raid 플레이어와 게임에 대해 토론해보세요:
+https://discordapp.com/invite/mYKC5J6 (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>45527.8093287037</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>161ed514-6a62-4209-b8de-370849e850cd</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>박지민</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKlPZt92JRVXaqiJ-cPn05t0CijcrO5XqmHf8tZcJ-R4OeeUg=mo</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>새로운마음으로</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>45506.32619212963</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>45519.83677083333</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>b95a7917-1d3d-44c6-9f8e-47fe6e241cfa</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>문일환</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJgq-OeC7OVnBiH8JOS2mfWLqiJKCf6TtyM7U0xPtNiPSkwWg=mo</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>good game</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>45506.10667824074</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Thank you for the positive feedback! We hope to hear of you in Teleria!</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>45519.83655092592</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>603107e7-7b95-4b26-a0c3-663754250203</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>장철수</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKYM0deoFGqbSfulEVlfQrhIOqASHb877iR0c1xah4YFCseJw=mo</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>재미없음</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
         <v>1</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>1.8.83a</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="n">
-        <v>45505.01806712963</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M입니다.
-해당 현상으로 불편함을 끼쳐드려 죄송합니다.
-말씀해주신 리뷰 내용만으로는 리뷰를 통해 정확한
-확인이 어려우므로 양해를 부탁드립니다.
-지속적으로 동일한 현상이 발생하신다면
-번거로우시더라도 plaync 고객지원 문의하기를
-통해 접수해주시면 고객님께 필요한 도움을
-드릴 수 있도록 최선을 다하겠습니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="n">
-        <v>45505.40354166667</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>1.8.83a</t>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>45505.98491898148</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>안녕하세요! 잠시 시간을 내어 리뷰를 작성해 주셔서 감사합니다. 게임이 마음에 들지 않으셨다니 안타깝습니다. 우리는 매일 더 나은 것을 만들기 위해 최선을 다하고 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>45506.84407407408</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>d84e6d85-080e-4a39-9de6-febe38ab3586</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>조수현</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUJ9m6PhfkR7T9DZKvFFIR6AXS7yZqilyKOprYwLS9K2DKCNEWh</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>좋아</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>45505.67225694445</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>게임을 좋아해주셔서 기쁩니다. 더욱 개선하기 위해 최선을 다하겠습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>45519.83599537037</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>3d644ded-1217-42fd-87eb-3f0fc1b2330f</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>박대희</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKZ2TszD75mHFKRcPxtSA20c1RwZpQQE0M2k9d7jXtywpFt0g=mo</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>45504.50869212963</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Thank you for the review. Have fun!</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>45525.77918981481</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>a705e334-1a69-4506-b9ec-61a5489760c3</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>우기잉</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVme1p02PY1j2rIzZma6X8tayeqDbbG8S8bSm1RrlWAQlgV4QGX</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>뉴비들도 과금없이 레벨링을 쉽게 할 수 있어요!</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>5</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>45503.48486111111</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>게임을 좋아하셔서 기쁩니다! Discord 채널을 방문하여 다른 Raid 플레이어와 게임에 대해 토론해 보세요: https://discordapp.com/invite/mYKC5J6 (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>45519.81719907407</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7ba07d70-e2ee-4858-9e1d-734e96321ced</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>해선입문</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKRNw8ev7M-ZI5qNBAo_KHWI70HlgMk-CvbPT-Rdq2IehzCHA=mo</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>잼있음</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>5</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>45503.39142361111</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>리뷰 감사합니다. 재밌게 즐기세요! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>45518.85866898148</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>18a8f3dd-8f22-472e-9486-022e2966d860</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>맹세영</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLiRdCTjDWx3BYB9Bkj6ePv4oSFw31cJDArH6jjzwJT7ttXYj8=mo</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>굳</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>5</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>45503.09887731481</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>피드백을 주셔서 감사합니다! 게임을 즐기셔서 기쁩니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>45518.85833333333</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>f76dc3cd-34e7-4cc7-99f6-653d582771fe</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>김재진</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJI3gc43joqBSWLvRors3MKwdmkGPmVJbdt3fbQHyFnRnL4-A=mo</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>캐릭 모으고 덱 설정하고 탬 셋팅하는 재미가 쏠쏠합니다</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>5</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>45500.85201388889</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>게임을 좋아해주셔서 기쁩니다. 더욱 개선하기 위해 최선을 다하겠습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>45527.80710648148</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>25bdc5d4-34cd-4504-8f1c-1aaaddc31472</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>김범회</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLLfzPOovoW-_YCF9iVB7c7AYTa9Sm3-KD5QOFCG_zQFNWN5Q=mo</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>재미있습니다</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>5</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>45500.47657407408</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>리뷰 감사합니다. 재밌게 즐기세요! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>45518.80826388889</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cb39e607-dba9-4f71-b24f-798a8502388f</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>이성재</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVilK9butQKkIJIs4PgiDt0gK1451floFTIvSR1AoQ8xYDjM4w8</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>장비탈착에 비용 들지 않게 해주세요^^</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>45500.27506944445</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>유물은 전투에서 큰 차이를 만들어냅니다. 실버 수수료 없이 언제든지 챔피언을 다시 장비할 수 있으며, 이는 게임의 균형에 부정적인 영향을 미칠 수 있습니다. 귀하의 피드백에 감사드립니다. 한편, 실버를 획득하는 다양한 방법이 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>45519.80719907407</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>979c86f3-c5fc-4f9f-a044-f1072ccc58ff</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>성훈</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJfIg1poVgB3TDaNOOdVwxgfdMV8j1O4JCOgPoQDJNitd0faQ=mo</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>45499.57806712963</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>45519.80524305555</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>4137866e-9ab9-4ea7-9d15-8cb19c112a48</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>강우열</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKvNqBd68R3qPHASmereyf1KY-Vwra7xKo7d8hThSUluOG0Vw=mo</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>재미있어요</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>45499.49087962963</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>안녕하세요! 리뷰를 남겨주셔서 감사합니다. 저희 커뮤니티에 가입하여 다른 Raid 플레이어와 게임에 대해 토론해보세요:
+https://discordapp.com/invite/mYKC5J6 (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>45518.76953703703</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>da9dea00-e41d-4bdb-8c7d-f88494e9a94f</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>박해룡</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWHPwAA1vCBiFzG_qTHGiHzKneH4ZKtHum_FofnS26wtMYJGF8</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>그냥 그래요</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>4</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>45499.14027777778</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>좋은 말 해줘서 고마워! 당신이 우리 게임을 좋아한다는 소식을 들으니 기쁘네요. 아레나에서 행운을 빕니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>45499.7783449074</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>7e440549-71b0-4acd-bdba-9f3dca6345f2</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>정상수</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJHBahSf0Qhv5G3k90o7Mby4i6z8U6ouMLYw0rZPxPSV-5_JQ=mo</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>5</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>45499.10391203704</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>We're happy to hear you're enjoying the game!</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>45532.08049768519</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>9.00.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>3e624387-a21a-4237-ad4f-b532ee269867</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>한병진</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKR88V67iEQdTHukvYpdOM2FhI9YXtL0J4gfAXxHkyHGNpn-Q=mo</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>지루하지 않고 하나씩 찾아 가는 재미가 쏠쏠하다</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>5</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>45498.50086805555</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>안녕하세요! 리뷰를 남겨주셔서 정말 감사합니다! 게임에서 많은 승리를 기원합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>45511.90510416667</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>988990ee-6fce-45c1-bf80-336827a5a92f</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>유진현</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLP6m662n32rdP73ZYkc7nukSQb5CzH1L3b-PwvEiXIukcQ0w=mo</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>일단 캐릭뽑기확률 레어만나와서 화가남.. 7월달에 시작했는데 켜농 유튜브 링크 클릭하고 다시 들어갔는데 초심자 패키지나 몽키킹안줌.. 신규유저아니라구.. 7월에시작했는데 다시지우고해도 안주네요 원래 그냥 재밌어서 보여서 한사람한테 더 뭘줘야하지않나 싶네요..</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>45498.31293981482</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>기기에 처음으로 게임을 설치한 경우에만 보상을 받을 수 있습니다. 이전에 이 기기에 게임을 설치했다가 삭제하고 다시 설치한 경우 보상을 받을 수 없습니다. 모든 조건을 충족했지만 보상을 받지 못한 경우 지원팀 raid.support@plarium으로 문의하세요. com (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>45499.24870370371</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>74c0c162-ecbc-4ff8-b19d-b892a18aa1aa</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>구태근</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIRvxTgBCC2jDRQWBGkTy_VxTS7J7MzSoGvPteca7ooRnOAkg=mo</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>5</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>45497.53386574074</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>피드백을 주셔서 감사합니다! 게임을 즐기셔서 기쁩니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>45511.89805555555</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>3605eb69-1618-4319-8f5b-6534deaf2dce</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>인사하면오뎅남</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWHWBvqa4Eu_JuzvCBbxHT_VPB6HOTmlyeAqFbNiKEo7XB_xzlc</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>잼남</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>5</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>45497.4499074074</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>안녕하세요! 리뷰를 남겨주셔서 감사합니다. 저희 커뮤니티에 가입하여 다른 Raid 플레이어와 게임에 대해 토론해보세요:
+https://discordapp.com/invite/mYKC5J6 (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>45518.76771990741</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>cdec7786-9ff5-4054-8625-3ddff7304535</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>송호진</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLa36aMSULHv-TQ4L0ozWjU7RUusHqJs4_IblAQoQMSCzfF1w=mo</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>45497.30204861111</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>45511.89766203704</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>9d37d956-6036-42ba-8b1d-56140aa0b705</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>하루5km</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI6wqJSIcoyg7OWsU2bxhlh-_-_mkpHm8jT4zdt5ziBgMnqJg=mo</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>5</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>45497.01685185185</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>45511.89745370371</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0ac402ca-47dc-462a-bf8f-f8bc847f5d69</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>hk o</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLDvSy25z52wcp9vKvKomX3XIPsWC2_aMGsQGT_93FDNhBFSQ=mo</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>굿 재밌어용!</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>5</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>45496.9040625</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>게임을 즐기고 있다는 소식을 듣고 기쁩니다! 게임을 더욱 개선하기 위해 노력하고 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>45511.89625</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2ae17692-e771-4cc4-bd42-ce3889d8442f</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>몽갱이</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVkIT1in84cVw7eMr6a18TxmDC4GbkfhdrQonpc8mpVvUdvIwY</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>피망 이벤트 하길래 했는데 왜안줌??</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>45496.35976851852</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>안녕하세요! 귀하의 협조와 제안에 감사드리며, 이를 구현하지는 않을 것입니다. 어떤 것들은 게임 밸런스를 방해하거나 게임에 대한 우리의 생각과 일치하지 않을 수 있습니다. 자세한 내용은 포럼(http://bit.ly/raid_suggestions)을 확인하세요. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>45496.64381944444</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>02b017b0-c2be-4490-ab18-f69456b5b146</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>김성희</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIGhPdijoBDsyxCq7UvbOg5EGRlupsbb5gbw1VCchrdQM_qUg=mo</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>굿굿굿</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>45496.2855787037</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>안녕하세요!
+게임을 좋아하셔서 기쁩니다. 저희 포럼에 가입하여 다른 Raid 플레이어와 게임에 대해 토론해 보세요: http://bit.ly/raid_forum (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>45511.88976851852</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>66209311-ec65-4c5c-92c0-47bf3abaebbb</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>이웅희</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJsoELQkcaVRDdEL8_VXFA3ncPdHfRYT_7A6zlEmHGWW2KIRw=mo</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>즐겜</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>45495.95459490741</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>게임을 즐기고 있다는 소식을 듣고 기쁩니다! 게임을 더욱 개선하기 위해 노력하고 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>45511.88621527778</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>7342ff2e-77c1-496e-b889-70213441cb16</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>이언</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKKgQaF8KObIYd-KF3ybwMwa5TQDJMgJ-hufMfnNI4qUXdljw=mo</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>45495.47869212963</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>45511.84049768518</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>67a0391c-67ff-4f11-9c42-c745c97fab0f</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>꿈꾸는돌멩이</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV8OmBQGu79fxvyBHGwVNHcoQjR4v0Mr66u5LQtEhHYL-BCgbJq</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>데스크탑계정을못찾겟어요</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>45494.27775462963</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>안 돼요! 저희 지원팀에 연락해 주시면 조사해 드리겠습니다. 공식 포럼과 Discord 서버의 버그 리포트 섹션을 확인하거나 raid.support@plarium.com으로 이메일을 보내주세요. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>45510.77415509259</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>481441ae-df8a-443d-b98e-7528472289e8</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>바보온달</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW2yT3vv2YHENxNbM8S2GqBKae4xy5T0SRHdiUb8rSsgKi8GFDsig</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>5</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>45494.16604166666</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>안녕하세요! 높은 평가 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>45511.82103009259</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>a56c07ba-6c00-4d36-a139-02fed54f7dc1</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>윤승열</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLP-kOsqcGh9NdS_8GR992orPXudpBeuXIVUwZ-AAIpm4jYpg=mo</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>잼나요~^^</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>4</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>45494.12229166667</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>레이드를 좋아하신다니 정말 기쁘네요. 아레나에서 행운을 빕니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>45496.88158564815</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>842bdeca-e882-46c7-8d91-f8c4963376d6</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>김여원</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIrcHbSDQkkcl3OfZUsPlYPrMytRw99YJ3Dcf75DiNA7L_iOg=mo</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>45493.68862268519</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>긍정적인 피드백을 주셔서 정말 감사합니다. 앞으로도 많은 승리를 기원합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>45511.81923611111</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>aa09f46f-ef13-44f0-a910-683d456b3d38</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>정짱짱</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX4alGDs8ksT0Wx_gfSycbud9egzFnOHdyxc4Ps0mn0FKw3_mee7w</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>중독성 있는 재밌는 게임</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>5</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>45493.5034837963</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>높은 평가를 주셔서 정말 감사합니다! 게임을 좋아하셔서 기쁩니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>45518.76637731482</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2f6111f8-50d6-45ff-a6da-803e28cb800f</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>방철호</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK_hqYLmwO699y_dNVwg0MQL6_yFiDm7mIQq6RO9sTQOGHbyw=mo</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>아주 좋아요</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>45490.52753472222</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>여기요! 높은 평가를 주셔서 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>45509.6591087963</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>3d7d9ccc-265e-4682-8331-9bf6b69c90b9</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>문동환</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJuJAWinJnrFfT2eSs8-Z-H-QNppthiW11mkUt7qJXbNlSmvA=mo</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>잔잔하게 재밌어요</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>45490.48697916666</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>당신이 게임을 즐기고 있다는 소식을 듣고 기쁘게 생각합니다! 우리는 이를 더욱 개선하기 위해 노력하고 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>45509.65883101852</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>6f9b39f5-9b49-467c-b08e-94409c567cd0</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>민물베스</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLrAJbrPyvZKhP8TKdyN7XLBma7J2kC5Y7Pw1JsgGT3ju6Rfg=mo</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>갓겜</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>4</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>45489.80679398148</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>안녕하세요! 리뷰를 남겨주셔서 감사합니다. 커뮤니티에 가입하고 다른 Raid 플레이어와 게임에 대해 토론하세요.
+https://discordapp.com/invite/mYKC5J6 (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>45491.90758101852</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>e6727a33-63d5-4db5-8ea4-8bf0415bed9e</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DalE St</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJqm1efBGbjO8KnnHhNvkeJuBak9DLeLmaH7EZkPL6Nqz-heNw=mo</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>젬나요 아직 초반이라 더 해봐야겠네요</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>5</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>45489.55445601852</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>안녕하세요!
+게임을 좋아하셔서 기쁩니다. 저희 포럼에 가입하여 다른 Raid 플레이어와 게임에 대해 토론해 보세요: http://bit.ly/raid_forum (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>45510.75018518518</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2698d252-ac32-4eca-92a7-e143ba51a8b3</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>seok youn</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU3S9MWqOoWz_UUaMYWqSgnxVu9l2qvmdDaiMRKQdcEt8Fyj5E</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>그냥 혼자 즐길수 있는게임</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>5</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>45489.4403587963</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>높은 평가를 주셔서 정말 감사합니다! 당신이 게임을 좋아한다는 소식을 듣고 기쁘게 생각합니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>45509.65520833333</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>51ac0807-93dc-4067-ba59-a004683f9bd7</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>정재원</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIL_XkLXrk_BvJSIf8DjDDemOLzaz7N57lnCa2PXzJt1ftHOg=mo</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>재미남</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>5</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>45488.64641203704</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>안녕하세요!
+게임을 좋아하신다니 기쁘네요. 포럼에 참여하고 다른 Raid 플레이어와 게임에 대해 토론하세요: http://bit.ly/raid_forum (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>45509.65306712963</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>aa16cb14-bc95-4c39-baf4-2255c95f8e9c</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>최브라더s</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWIzUeevUWuwwDkHrmhCtnpFuqtpwVQgUVR125uKEz8FfIxuAB3</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>이제시작이라 열심히해보고있습니다 아직까지괜찮네요 참고로1일차입니다 꾸준히해보고 다시 리뷰하겠음</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>45488.46356481482</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>당신이 게임을 즐기고 있다는 소식을 듣고 우리는 기쁩니다! 우리는 이를 더욱 개선하기 위해 노력하고 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>45509.6512037037</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>4d213b4a-1604-45a4-af2b-f1400e5483fb</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>KMC738</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK_sieZDK70BHuWEFvsXOXuNJhuNneT_IRTrGH90MH1nFglcg=mo</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>인생이 원체 여유롭고 낭비할 시간이 무한정 많은 사람이라면, 할 만할 듯.</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>45488.21540509259</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>안녕하세요! 연마는 실버, 책, 기타 아이템을 획득하여 챔피언을 업그레이드할 수 있는 기회입니다. 하지만 자동 전투 기능을 개선하기 위해 노력하고 있습니다. 계속 지켜봐 주시기 바랍니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>45490.65577546296</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1c4b64f2-9ab5-4565-88c2-594e6e117575</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Geunwon Bae</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWro75TwJdrYAQ6CgQlo8Zn1mFlPjHeS1DIKKp3kBBtTBJyFaAz</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>진행시켜</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>5</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>45487.97232638889</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>피드백을 보내주셔서 감사합니다! 게임을 즐기고 계시다니 다행입니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>45504.81</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>70ca62fc-016d-4d0f-8e7f-1988ec483de8</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>승민이</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKutyUJpmn-Zx0arbhm-CZlRXaqebY83_es_AituBLs6M0I1Q=mo</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>데몬로드 받기 않되고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>4</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" s="2" t="n">
+        <v>45485.5306712963</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>안녕! 도움이 필요하시면 게임 내 지원팀이나 raid.support@plarium.com으로 문의해 주세요. 최선을 다해 도와드리겠습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>45491.89950231482</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>70afa288-1524-4e6f-8b9c-985d058eb92b</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>이주상</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKxmXB24XtHOGVwr6oynoh43Xt804HK-pyBu2ZqsyYDljZq2Q=mo</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>재미있다</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>45485.445625</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>안녕! 귀하의 리뷰에 진심으로 감사드립니다! 게임에서 많은 승리를 기원합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>45504.79886574074</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>8ba3186f-7af0-476a-9d29-d4b99121c424</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>조순용</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJijGBdcSp_BuuZzAkuqOUn1eHAsMXVY8WBfN85xVEVUEB2vQ=mo</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>재미있기는 하지만 현질 안하면 어느레벨 이후로는 거의 불가능하다고 봐야겠어요.</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" s="2" t="n">
+        <v>45485.20010416667</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>우리는 정말 재미있는 게임을 만들고 싶었고, 그렇게 되어서 기쁩니다. 긍정적인 피드백에 감사드립니다! 당신의 챔피언이 아레나에서 가장 강해지길 바랍니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>45509.63513888889</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2bae8459-cc42-41ff-bb32-7eb3998e3e0f</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ihellionplay JUNG</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUEqO774d-JnrpEkj0fYgCTHv1r48omG_9JKb0OPFkBmijfU8wd</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>별루</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>45484.05108796297</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>안녕하세요! 긍정적인 의견을 보내주셔서 감사합니다.
+게임에 낮은 평점을 주셨는데 의견을 공유해주실 수 있나요? 게임에서 무엇을 개선해야 할까요? (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>45490.64518518518</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>7cfee75c-9a6d-4e42-b482-c1530aeab99e</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>정말이야</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIXm54ShlGd-lPmmeoNQGP8MLh5NPo7xHNAACT6KxeVTrDhMHI=mo</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>현질까지 했는데 리워드 안줌... 이거 하지마세요ㅎ</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>45483.47549768518</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>안녕! 도움이 필요하시면 게임 내 지원팀이나 raid.support@plarium.com으로 문의해 주세요. 최선을 다해 도와드리겠습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>45484.85924768518</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>48ffc1a3-ccee-46e6-91a7-42a263f7edf0</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>정현수</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK9_uKvbW6ZTiy3uABhJnOJeFfLVoseqUChw-_C1__606jH8w=mo</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>재미있어요</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>5</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>45483.43449074074</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>게임을 즐기고 있다는 소식을 듣고 기쁩니다! 게임을 더욱 개선하기 위해 노력하고 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>45517.90103009259</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>3fa618a2-b3fc-495f-8086-a0485786ffd5</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>김형준</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKct6bFWR6RrVDMeZoDlCQ4AF2nZ5JoWzNFjwyPWpYWDdIsOw=mo</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>20분하고 반복되는 지루함과 재미가 없어 삭제</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>45482.69758101852</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>안녕하세요! 잠시 시간을 내어 리뷰를 작성해 주셔서 감사합니다. 게임이 마음에 들지 않으셨다니 안타깝습니다. 우리는 매일 더 나은 것을 만들기 위해 최선을 다하고 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>45483.60045138889</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>7bf9256c-3518-4bcc-982f-0c7f7df6cd05</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Shin Apolo</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVxrOHv2LZuP2OYln9OkLStupHim2vkI7tEJUtswNKnsg8Dv46U</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>나름 괜찮은 게임 조금만 개선 한다면 더 재미 있을듯 1.에너지 부족 현질 하라고 하는건 알겠는데 무과금 하는 사람 입장에선 그냥 일퀘만 하고 끝(광고나 겜 머니로 충전 기능 시급) 에너지 충전 시간 표시 1에너지 몇분 이런식으로 표시 글고 핫타임 이벤트로 에너지 주시나요? 받은 기억이 없어서.. 2.월간 퀘스트에 있는 30일 퀘스트 일수 줄여야함 막 시작한 뉴비들한테 생략을 하든지 아니면 요일수 조정이 시급함 30일중 하루 못하면 보상 못받음 2월달은 28일인데 그건 어떻게 보상 해줬지가.. 일단 이 게임 하면서 단점들만 이야기 해봅니다.</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>5</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>45482.59434027778</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>안녕! 피드백을 보내주셔서 감사합니다! 개발자에게 전달하도록 하겠습니다. 게임을 더 좋게 만들고자 하는 여러분의 열망에 감사드립니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>45503.71363425926</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>8482d884-c2b6-4a1b-9c91-828f2e41f450</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>정환국</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJHxO9f1PJiTLJDuEoXwVIMU6e1fWrNl3nwH_mT-bhOFGX4jg=mo</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>goog</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>45482.57835648148</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Hey! Thank you for the high rating!</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>45504.66055555556</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>62772aaf-266f-444f-a905-3bd01ddc238e</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>미스터리</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUTLkBs3DMtQjWYUe5GpgJRSJZoRGdCvcwye4wi3goJGEaSAp7p</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>할만함</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>5</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>45482.51194444444</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>당신이 게임을 좋아한다는 소식을 들으니 기쁘네요. 우리는 더 나아질 수 있도록 최선을 다할 것입니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>45503.70962962963</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ad2c1e46-25d6-4b82-97b6-45e2cc3c1f34</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>김대철</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKlBF5466ltv0kvGybrWRe-1U1krRJTso2mefHL5gpBArzVCQ=mo</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>5</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>45482.49181712963</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>여기요! 높은 평가를 주셔서 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>45503.70949074074</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>9.00.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>cd1afc0e-2678-4f59-a62c-17d9a821985e</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>임완정</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIAGyiu_Iam5pglx8mDhwDtj9ZNIjYouwQpq6Sh5Lut_lCUuQ=mo</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>재밌었어</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>5</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>4.30.1</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>45482.35652777777</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>리뷰를 남겨주셔서 감사합니다. 재미있게 보내세요! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>45503.64645833334</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>4.30.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>8c731eb3-cb23-4147-b89b-1e699e311e5d</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>신기루</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK27HBoEPCdd6OTVS7vqI9dIoial9VVD2RJPKUbH-0LXEY9ng=mo</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>리워드 안들어오네요 ..</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>45481.89670138889</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>안녕! 도움이 필요하시면 게임 내 지원팀이나 raid.support@plarium.com으로 문의해 주세요. 최선을 다해 도와드리겠습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="n">
+        <v>45484.84353009259</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ad7607f2-1e36-4ac7-a6f7-c471ac81d570</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>성준조</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJM0VLK3tIeIF2r3mMql0qTGWwDqOVlApsgMq-ip_Y-dq10Gg=mo</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>5</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>45481.4962962963</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>여기요! 높은 평가를 주셔서 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>45509.59601851852</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>02be7790-e024-4b92-82da-0ddf438a3f8a</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>로이쭈롤쭈</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ79vF4XUFJLj93O8P2LczUPl_q_UCD18SPayP5N2rFdKQ7lw=mo</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>재밓음</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>45481.41292824074</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>여기요! 높은 평가를 주셔서 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>45502.87537037037</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>032025b8-13eb-441f-a8ab-2efd92d3c6fa</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>신인철</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJwNLMsf0uVsxqGwgyIQMUgbPaS2ix1rrORbpu52BBDJvvYEQ=mo</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>좋아용</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>5</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>45481.29451388889</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>당신이 게임을 즐기고 있다는 소식을 듣고 기쁘게 생각합니다! 우리는 이를 더욱 개선하기 위해 노력하고 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>45502.87515046296</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>f809ab4f-0829-4471-b3e4-b721c227140d</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>승빈파파</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWLuocjSzj1n10h98aFAKrkq-rPB6CROICj1qoy9Z3M01Pd_TA</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>넘 재미있어요</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>5</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>45481.21475694444</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>감사합니다! 우리는 Raid를 만들기 위해 열심히 노력했으며, 여러분이 Raid를 좋아하신다는 소식을 듣고 기쁘게 생각합니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>45504.6540625</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>e4745f4a-e617-4348-9008-e6bfd507701b</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>eurrark Park</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLOGloDLaZjveoD-fwvaZT0WtpT_kxS2KXvSolmlZB8XwblgQ=mo</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>재미있음</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>5</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>45480.3969212963</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Raid를 좋아하신다는 소식을 듣고 기쁩니다. Arena에서 행운을 빌어요! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>45510.73748842593</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>c0fc04b7-e192-40e3-98f3-2fdd48a628d6</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>벼락부자</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI95mWoJWvFQ_dt_XZKtlZCMjQFFQFkzNiwkNPW7uoTfvbdeQ=mo</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>대박이네</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>5</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>45480.36596064815</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>잠시 시간을 내어 리뷰를 작성해 주셔서 감사합니다! 높은 평가에 감사드리며, 게임을 좋아하신다니 기쁘네요. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>45503.62202546297</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>d5e7a6d9-30cd-4349-9d06-6a0c577e5581</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>김훈경</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUd1yiK30zwZECgI57YLIr0r9CGRF8T65Xf-TTlv4v1NzSiCIPs</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>5</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>45479.86349537037</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>당신이 게임을 즐기고 있다는 소식을 듣고 기쁘게 생각합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>45508.83797453704</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>27f2f502-f4ca-4545-b2e4-13e02b50908f</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>방장호</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVeNmvDNM6z9tk-CTlAVVLk6N2N0z8T0KsySTefL1ISJwpkL8o</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>재미있네요^^</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>45479.8133912037</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>긍정적인 피드백에 감사드립니다! Teleria에서 여러분의 소식을 듣기를 바랍니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>45503.6210300926</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1b54fdb4-2b61-4ce3-b684-e5182c6262ce</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>오창훈</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKMZTu6dKPpzPuhG674C1C5BdVi1TWLs58Mb0Q9MGZogSeB1w=mo</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>재미있었어요</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>4</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>45479.65980324074</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>우리는 정말 재미있는 게임을 만들고 싶었고, 그렇게 되어서 기쁩니다. 긍정적인 피드백에 감사드립니다! 당신의 챔피언이 아레나에서 가장 강해지길 바랍니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>45484.88888888889</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>bbffac20-5c85-48c8-8275-d4e5bbd88b12</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>사과 고양이</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX94M0vL5bHhUYGadMPB7IpjSrqoSGsmtBhE2OvWfydyHDDvP_D</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>5</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" s="2" t="n">
+        <v>45479.49737268518</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>감사합니다! 우리는 게임을 만드는 데 많은 노력을 기울였습니다. 당신이 그것을 좋아한다는 것을 알게 되어 기쁘네요! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>45503.61990740741</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>25fecd46-51f7-450a-962b-6209d264e394</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>방인환</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJBKo_HJUSwQNzrr4zAwBWiTOYMWqERCvpbUNDu65pKdxuQVA=mo</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>nba</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>5</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>45479.46696759259</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Hey! Thank you for the high rating!</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>45502.85746527778</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>c3977771-269d-467c-9add-1a4b337396a9</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>남정주영</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJsiiuUwtO-PhQG0BL4oVAIFTxi0Ur74tSpdyR3QvZ_xMA64w=mo</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>재미있어요</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>4</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>45479.24429398148</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>우리는 정말 재미있는 게임을 만들고 싶었고, 그렇게 되어서 기쁩니다. 긍정적인 피드백에 감사드립니다! 당신의 챔피언이 아레나에서 가장 강해지길 바랍니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>45483.79828703704</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>e4884f0f-37f0-4b18-b1aa-ba852feae3e5</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>추운객검성</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJrjYQAMTnq4NCC7TzxpfLn66e4biVCs5fGlR0Z9jPUNOOUzA=mo</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>잼나요</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>4</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>45479.24125</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>물론 재미있습니다! 리뷰를 남겨주셔서 감사합니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>45484.88822916667</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>8dbe6538-248c-4700-83e8-c7df1878dc54</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>짱별</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJNMevBS7HVOsq5JXl1mvkrYsVUCiovo6E-ihW3VTFGv1dijQ=mo</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>재미는 있는데 돈을 너무 밝힘... 켤때마다 홈에 돌아올때 매일 초반에는 다른 결제요그 창들이 너무 자주 뜸</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>3</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>8.50.0</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>45479.00487268518</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>안녕! 많은 거래는 일시적이며 관심 있는 플레이어가 기회를 놓치지 않도록 화면에 수시로 표시하고 싶습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>45481.95865740741</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>8.50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ffdd2ba7-c7ea-426f-84d1-a21741ec83d3</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>이현섭</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVJmrt6tvSc7SVN2mdS3DIhxiqfLjKU3YbqFT51ndWT3V0sf4im</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>굿굿</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>5</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>45478.41549768519</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>레이드를 좋아하신다니 정말 기쁘네요. 아레나에서 행운을 빕니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>45509.57881944445</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>5c0ab510-4178-44b4-b0ff-6ced70c02841</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>장돌뱅이힐링 푸드</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWp9C3FtPqQBlHNzOp47QQrKw_dTlzKbZOAf1bTwcfVxWOH6SHb</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>구매하라는게 너무많아요 돈벌레</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>45477.59950231481</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>안녕하세요! 우리는 F2P와 유료 콘텐츠의 균형을 맞추려고 노력합니다. 게임 내 구매를 통해 진행 속도를 높일 수 있지만 신성한 파편과 공허 파편과 같은 멋진 콘텐츠를 무료로 얻을 수 있습니다. 그리고 전략을 기억하세요. 그것이 가장 중요합니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>45481.94732638889</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>54df6446-32af-4475-a92a-4b4cff0731c3</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>박하</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK9ZB7K8Hrl4mmFZx4JQT5BWEZJh5x5-dxlLJP2o-U-X-VI-g=mo</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>별점테러</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>5</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>45477.5222337963</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>여기요! 높은 평가를 주셔서 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="n">
+        <v>45503.61738425926</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>3038c40d-c174-47af-a313-de158ea7b2e6</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>windy Kim</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWJOGK1XhKLP_rA9EKIiXibyVwsbhUr_c3WFTvFnl_1T7BQNbHl</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>공부해서 시작하면 빨라요 ^</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>4</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>45477.29894675926</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>안녕! 시간을 내어 게임에 대한 의견을 공유해 주셔서 감사합니다. 귀하의 피드백은 우리에게 정말 소중합니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>45477.81465277778</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>c85f3708-a6a8-4276-8220-1280646352e6</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>예원</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV3C9UfyPrRnyU8zYAlDwfcyJhaFVSGJYDVOoEx18URIY8PRQM</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>다 좋은데 미션에서 미션을 수행해도 미션 수행 안했다고 뜨는 버그 심해서 30번 해야 뜰 때도 있음</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" s="2" t="n">
+        <v>45476.74349537037</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>안녕! 알려주셔서 감사합니다. 게임이나 raid.support@plarium.com을 통해 지원팀에 문의하세요.
+우리는 거기에서 당신을 돕기 위해 최선을 다할 것입니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="n">
+        <v>45477.80324074074</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>644b1b74-e4d2-4e06-b9d7-c5f683225dca</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>김경조</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXOEp00x5ALqAaOM6ecX_hx9sLGVgWg9Ikjwik3x0aWU0gTlF4</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>쥐기네~~~~~~~</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>5</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="n">
+        <v>45475.76034722223</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>여기요! 높은 평가를 주셔서 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="n">
+        <v>45499.79482638889</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>aecedff0-1e48-4a2c-8055-cf6bfbd6e84e</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>김종대</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKELu68F_EG_pO-l1Yl4dVUO667mevnoexnmBVB4a-ftAf3Vw=mo</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>나름 좋은 게임 이다</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I156" s="2" t="n">
+        <v>45474.81716435185</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>여기요! 높은 평가를 주셔서 감사합니다! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="n">
+        <v>45475.87427083333</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>303e01c9-050c-45f5-aae3-caa871f3ea1a</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>권오종 (해변)</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV2pRSjpS53DF0jlPkfFKgJxjUQ1rV8OaH8SLN8t1hTnArKSjBdaA</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>재밌어요</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>5</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="n">
+        <v>45474.80873842593</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>감사합니다! 우리는 게임을 만드는 데 많은 노력을 기울였습니다. 당신이 그것을 좋아한다는 것을 알게 되어 기쁘네요! (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="n">
+        <v>45499.78979166667</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ed1bb04b-438b-4dbe-b43f-36785da70a7f</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Jaehoon Chang</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJk6OoQ_1F-sw_03DXLBwnH7C4AFJzMedO-kvkognECEw1eyg=mo</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>gooood</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>5</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="n">
+        <v>45474.23096064815</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Thank you for the review. Have fun!</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="n">
+        <v>45502.83388888889</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>b1296240-1db4-4b7d-af1c-d098b3358b5e</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>이종광</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocICdmBArf9wjSYhQrNPWQ-NktCYBOXhdWvljjkZh8gMESzC0A=mo</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>재밌고 시간 가는줄 뭘나요</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="n">
+        <v>45474.19511574074</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>시간을 내어 피드백을 공유해 주셔서 감사합니다! 게임이 마음에 드셨다니 저희도 기쁩니다. 우리는 더 나아질 수 있도록 최선을 다하고 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="n">
+        <v>45503.61116898148</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>3725a40f-aefb-4089-a494-3055174d68a3</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>김찬엽</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVSx34iDpUvzuJtvxBtg4xnJXccnjXiaHUHQMHqL0L-ic9giyA</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>참 잼나요</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>4</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="n">
+        <v>45474.07072916667</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>당신이 게임을 즐기고 있다는 소식을 듣고 기쁘게 생각합니다! 우리는 이를 더욱 개선하기 위해 노력하고 있습니다. (via GoogleTranslate)</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="n">
+        <v>45476.5187037037</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>8.60.1</t>
         </is>
       </c>
     </row>
